--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\ModelsOfLinearRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D73F50-7681-46E4-AE44-DDCFB7949A30}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C27F6AD-157A-4B2D-BE3B-1E2DCB7C6245}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">players_stats!$A$1:$AE$491</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="557">
   <si>
     <t>Name</t>
   </si>
@@ -1691,6 +1691,9 @@
   </si>
   <si>
     <t>non_us</t>
+  </si>
+  <si>
+    <t>BRK</t>
   </si>
 </sst>
 </file>
@@ -2552,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I466" sqref="I466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,7 +2682,8 @@
         <v>81.45</v>
       </c>
       <c r="H2">
-        <v>23.79839299</v>
+        <f>G2/D2/D2*10000</f>
+        <v>23.798392987582176</v>
       </c>
       <c r="I2">
         <v>26</v>
@@ -2774,7 +2778,8 @@
         <v>72.45</v>
       </c>
       <c r="H3">
-        <v>22.36111111</v>
+        <f t="shared" ref="H3:H66" si="0">G3/D3/D3*10000</f>
+        <v>22.361111111111114</v>
       </c>
       <c r="I3">
         <v>82</v>
@@ -2869,7 +2874,8 @@
         <v>99</v>
       </c>
       <c r="H4">
-        <v>24.142661180000001</v>
+        <f t="shared" si="0"/>
+        <v>24.142661179698212</v>
       </c>
       <c r="I4">
         <v>47</v>
@@ -2964,7 +2970,8 @@
         <v>106.65</v>
       </c>
       <c r="H5">
-        <v>25.37775134</v>
+        <f t="shared" si="0"/>
+        <v>25.377751338488995</v>
       </c>
       <c r="I5">
         <v>32</v>
@@ -3059,7 +3066,8 @@
         <v>110.25</v>
       </c>
       <c r="H6">
-        <v>26.234384299999999</v>
+        <f t="shared" si="0"/>
+        <v>26.234384295062465</v>
       </c>
       <c r="I6">
         <v>76</v>
@@ -3154,7 +3162,8 @@
         <v>130.05000000000001</v>
       </c>
       <c r="H7">
-        <v>30.945865560000001</v>
+        <f t="shared" si="0"/>
+        <v>30.945865556216539</v>
       </c>
       <c r="I7">
         <v>65</v>
@@ -3249,7 +3258,8 @@
         <v>99</v>
       </c>
       <c r="H8">
-        <v>26.035502959999999</v>
+        <f t="shared" si="0"/>
+        <v>26.03550295857988</v>
       </c>
       <c r="I8">
         <v>74</v>
@@ -3344,7 +3354,8 @@
         <v>96.3</v>
       </c>
       <c r="H9">
-        <v>25.325443790000001</v>
+        <f t="shared" si="0"/>
+        <v>25.325443786982245</v>
       </c>
       <c r="I9">
         <v>27</v>
@@ -3439,6 +3450,7 @@
         <v>110.25</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I10">
@@ -3534,7 +3546,8 @@
         <v>117</v>
       </c>
       <c r="H11">
-        <v>25.910034599999999</v>
+        <f t="shared" si="0"/>
+        <v>25.91003460207612</v>
       </c>
       <c r="I11">
         <v>69</v>
@@ -3629,7 +3642,8 @@
         <v>85.5</v>
       </c>
       <c r="H12">
-        <v>22.4852071</v>
+        <f t="shared" si="0"/>
+        <v>22.485207100591715</v>
       </c>
       <c r="I12">
         <v>42</v>
@@ -3724,7 +3738,8 @@
         <v>111.6</v>
       </c>
       <c r="H13">
-        <v>24.142779879999999</v>
+        <f t="shared" si="0"/>
+        <v>24.142779881016764</v>
       </c>
       <c r="I13">
         <v>68</v>
@@ -3819,7 +3834,8 @@
         <v>99</v>
       </c>
       <c r="H14">
-        <v>24.142661180000001</v>
+        <f t="shared" si="0"/>
+        <v>24.142661179698212</v>
       </c>
       <c r="I14">
         <v>74</v>
@@ -3914,7 +3930,8 @@
         <v>94.5</v>
       </c>
       <c r="H15">
-        <v>24.85207101</v>
+        <f t="shared" si="0"/>
+        <v>24.852071005917161</v>
       </c>
       <c r="I15">
         <v>51</v>
@@ -4009,7 +4026,8 @@
         <v>101.25</v>
       </c>
       <c r="H16">
-        <v>26.627218930000002</v>
+        <f t="shared" si="0"/>
+        <v>26.627218934911248</v>
       </c>
       <c r="I16">
         <v>54</v>
@@ -4104,7 +4122,8 @@
         <v>111</v>
       </c>
       <c r="H17">
-        <v>25.65644</v>
+        <f t="shared" si="0"/>
+        <v>25.656434911242606</v>
       </c>
       <c r="I17">
         <v>59</v>
@@ -4199,7 +4218,8 @@
         <v>108</v>
       </c>
       <c r="H18">
-        <v>26.337448559999999</v>
+        <f t="shared" si="0"/>
+        <v>26.337448559670779</v>
       </c>
       <c r="I18">
         <v>75</v>
@@ -4294,7 +4314,8 @@
         <v>124</v>
       </c>
       <c r="H19">
-        <v>27.85202</v>
+        <f t="shared" si="0"/>
+        <v>27.852024887131915</v>
       </c>
       <c r="I19">
         <v>26</v>
@@ -4389,7 +4410,8 @@
         <v>96.75</v>
       </c>
       <c r="H20">
-        <v>26.108955980000001</v>
+        <f t="shared" si="0"/>
+        <v>26.108955979085849</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -4484,7 +4506,8 @@
         <v>125.55</v>
       </c>
       <c r="H21">
-        <v>29.159529689999999</v>
+        <f t="shared" si="0"/>
+        <v>29.159529685005076</v>
       </c>
       <c r="I21">
         <v>82</v>
@@ -4579,7 +4602,8 @@
         <v>96.75</v>
       </c>
       <c r="H22">
-        <v>25.443786979999999</v>
+        <f t="shared" si="0"/>
+        <v>25.443786982248518</v>
       </c>
       <c r="I22">
         <v>77</v>
@@ -4674,7 +4698,8 @@
         <v>90</v>
       </c>
       <c r="H23">
-        <v>25.6</v>
+        <f t="shared" si="0"/>
+        <v>25.599999999999998</v>
       </c>
       <c r="I23">
         <v>81</v>
@@ -4769,7 +4794,8 @@
         <v>94.5</v>
       </c>
       <c r="H24">
-        <v>24.22688672</v>
+        <f t="shared" si="0"/>
+        <v>24.226886716872297</v>
       </c>
       <c r="I24">
         <v>67</v>
@@ -4864,6 +4890,7 @@
         <v>110.25</v>
       </c>
       <c r="H25">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I25">
@@ -4959,7 +4986,8 @@
         <v>99</v>
       </c>
       <c r="H26">
-        <v>24.142661180000001</v>
+        <f t="shared" si="0"/>
+        <v>24.142661179698212</v>
       </c>
       <c r="I26">
         <v>7</v>
@@ -5054,7 +5082,8 @@
         <v>117</v>
       </c>
       <c r="H27">
-        <v>26.53061224</v>
+        <f t="shared" si="0"/>
+        <v>26.530612244897959</v>
       </c>
       <c r="I27">
         <v>67</v>
@@ -5149,7 +5178,8 @@
         <v>112.5</v>
       </c>
       <c r="H28">
-        <v>27.434842249999999</v>
+        <f t="shared" si="0"/>
+        <v>27.434842249657066</v>
       </c>
       <c r="I28">
         <v>40</v>
@@ -5244,7 +5274,8 @@
         <v>92</v>
       </c>
       <c r="H29">
-        <v>22.325220000000002</v>
+        <f t="shared" si="0"/>
+        <v>22.325220218884223</v>
       </c>
       <c r="I29">
         <v>82</v>
@@ -5339,6 +5370,7 @@
         <v>110.25</v>
       </c>
       <c r="H30">
+        <f t="shared" si="0"/>
         <v>27.5625</v>
       </c>
       <c r="I30">
@@ -5434,7 +5466,8 @@
         <v>113.85</v>
       </c>
       <c r="H31">
-        <v>27.09101725</v>
+        <f t="shared" si="0"/>
+        <v>27.091017251635925</v>
       </c>
       <c r="I31">
         <v>68</v>
@@ -5529,7 +5562,8 @@
         <v>94.5</v>
       </c>
       <c r="H32">
-        <v>25.501770960000002</v>
+        <f t="shared" si="0"/>
+        <v>25.50177095631641</v>
       </c>
       <c r="I32">
         <v>74</v>
@@ -5624,7 +5658,8 @@
         <v>109</v>
       </c>
       <c r="H33">
-        <v>26.450530000000001</v>
+        <f t="shared" si="0"/>
+        <v>26.450532650634571</v>
       </c>
       <c r="I33">
         <v>76</v>
@@ -5719,7 +5754,8 @@
         <v>90</v>
       </c>
       <c r="H34">
-        <v>24.287400909999999</v>
+        <f t="shared" si="0"/>
+        <v>24.287400910777535</v>
       </c>
       <c r="I34">
         <v>41</v>
@@ -5814,7 +5850,8 @@
         <v>114.75</v>
       </c>
       <c r="H35">
-        <v>27.983539090000001</v>
+        <f t="shared" si="0"/>
+        <v>27.983539094650205</v>
       </c>
       <c r="I35">
         <v>6</v>
@@ -5909,7 +5946,8 @@
         <v>117</v>
       </c>
       <c r="H36">
-        <v>27.840571090000001</v>
+        <f t="shared" si="0"/>
+        <v>27.840571088637713</v>
       </c>
       <c r="I36">
         <v>70</v>
@@ -6004,7 +6042,8 @@
         <v>94.5</v>
       </c>
       <c r="H37">
-        <v>25.501770960000002</v>
+        <f t="shared" si="0"/>
+        <v>25.50177095631641</v>
       </c>
       <c r="I37">
         <v>78</v>
@@ -6099,7 +6138,8 @@
         <v>99</v>
       </c>
       <c r="H38">
-        <v>22.993177530000001</v>
+        <f t="shared" si="0"/>
+        <v>22.993177529394689</v>
       </c>
       <c r="I38">
         <v>34</v>
@@ -6194,7 +6234,8 @@
         <v>90</v>
       </c>
       <c r="H39">
-        <v>24.930747920000002</v>
+        <f t="shared" si="0"/>
+        <v>24.930747922437671</v>
       </c>
       <c r="I39">
         <v>76</v>
@@ -6289,7 +6330,8 @@
         <v>81</v>
       </c>
       <c r="H40">
-        <v>23.66691015</v>
+        <f t="shared" si="0"/>
+        <v>23.666910153396643</v>
       </c>
       <c r="I40">
         <v>77</v>
@@ -6384,7 +6426,8 @@
         <v>90</v>
       </c>
       <c r="H41">
-        <v>25.6</v>
+        <f t="shared" si="0"/>
+        <v>25.599999999999998</v>
       </c>
       <c r="I41">
         <v>56</v>
@@ -6479,7 +6522,8 @@
         <v>87.75</v>
       </c>
       <c r="H42">
-        <v>23.680215889999999</v>
+        <f t="shared" si="0"/>
+        <v>23.680215888008096</v>
       </c>
       <c r="I42">
         <v>82</v>
@@ -6574,7 +6618,8 @@
         <v>92</v>
       </c>
       <c r="H43">
-        <v>25.218610000000002</v>
+        <f t="shared" si="0"/>
+        <v>25.218606946081522</v>
       </c>
       <c r="I43">
         <v>79</v>
@@ -6669,7 +6714,8 @@
         <v>108</v>
       </c>
       <c r="H44">
-        <v>25.698988700000001</v>
+        <f t="shared" si="0"/>
+        <v>25.698988697204047</v>
       </c>
       <c r="I44">
         <v>16</v>
@@ -6764,7 +6810,8 @@
         <v>114.75</v>
       </c>
       <c r="H45">
-        <v>27.983539090000001</v>
+        <f t="shared" si="0"/>
+        <v>27.983539094650205</v>
       </c>
       <c r="I45">
         <v>64</v>
@@ -6859,7 +6906,8 @@
         <v>112.95</v>
       </c>
       <c r="H46">
-        <v>26.87685901</v>
+        <f t="shared" si="0"/>
+        <v>26.876859012492567</v>
       </c>
       <c r="I46">
         <v>67</v>
@@ -6954,7 +7002,8 @@
         <v>97.2</v>
       </c>
       <c r="H47">
-        <v>24.3</v>
+        <f t="shared" si="0"/>
+        <v>24.299999999999997</v>
       </c>
       <c r="I47">
         <v>78</v>
@@ -7049,6 +7098,7 @@
         <v>112.5</v>
       </c>
       <c r="H48">
+        <f t="shared" si="0"/>
         <v>28.125</v>
       </c>
       <c r="I48">
@@ -7144,7 +7194,8 @@
         <v>93.15</v>
       </c>
       <c r="H49">
-        <v>25.137459939999999</v>
+        <f t="shared" si="0"/>
+        <v>25.13745994265475</v>
       </c>
       <c r="I49">
         <v>63</v>
@@ -7239,7 +7290,8 @@
         <v>107</v>
       </c>
       <c r="H50">
-        <v>24.73189</v>
+        <f t="shared" si="0"/>
+        <v>24.731878698224847</v>
       </c>
       <c r="I50">
         <v>75</v>
@@ -7334,6 +7386,7 @@
         <v>112.5</v>
       </c>
       <c r="H51">
+        <f t="shared" si="0"/>
         <v>28.125</v>
       </c>
       <c r="I51">
@@ -7429,7 +7482,8 @@
         <v>108</v>
       </c>
       <c r="H52">
-        <v>25.698988700000001</v>
+        <f t="shared" si="0"/>
+        <v>25.698988697204047</v>
       </c>
       <c r="I52">
         <v>27</v>
@@ -7524,7 +7578,8 @@
         <v>76.5</v>
       </c>
       <c r="H53">
-        <v>22.968662040000002</v>
+        <f t="shared" si="0"/>
+        <v>22.968662037905798</v>
       </c>
       <c r="I53">
         <v>41</v>
@@ -7619,7 +7674,8 @@
         <v>85.05</v>
       </c>
       <c r="H54">
-        <v>24.192</v>
+        <f t="shared" si="0"/>
+        <v>24.191999999999997</v>
       </c>
       <c r="I54">
         <v>63</v>
@@ -7714,7 +7770,8 @@
         <v>99</v>
       </c>
       <c r="H55">
-        <v>26.035502959999999</v>
+        <f t="shared" si="0"/>
+        <v>26.03550295857988</v>
       </c>
       <c r="I55">
         <v>33</v>
@@ -7809,7 +7866,8 @@
         <v>120.6</v>
       </c>
       <c r="H56">
-        <v>27.346938779999999</v>
+        <f t="shared" si="0"/>
+        <v>27.346938775510203</v>
       </c>
       <c r="I56">
         <v>22</v>
@@ -7904,7 +7962,8 @@
         <v>77.849999999999994</v>
       </c>
       <c r="H57">
-        <v>23.373991369999999</v>
+        <f t="shared" si="0"/>
+        <v>23.373991367986488</v>
       </c>
       <c r="I57">
         <v>72</v>
@@ -7999,7 +8058,8 @@
         <v>123.75</v>
       </c>
       <c r="H58">
-        <v>28.061224490000001</v>
+        <f t="shared" si="0"/>
+        <v>28.061224489795922</v>
       </c>
       <c r="I58">
         <v>72</v>
@@ -8094,7 +8154,8 @@
         <v>98.1</v>
       </c>
       <c r="H59">
-        <v>23.923182440000001</v>
+        <f t="shared" si="0"/>
+        <v>23.923182441700956</v>
       </c>
       <c r="I59">
         <v>8</v>
@@ -8189,7 +8250,8 @@
         <v>74.25</v>
       </c>
       <c r="H60">
-        <v>22.29311315</v>
+        <f t="shared" si="0"/>
+        <v>22.293113154437982</v>
       </c>
       <c r="I60">
         <v>15</v>
@@ -8284,7 +8346,8 @@
         <v>78.75</v>
       </c>
       <c r="H61">
-        <v>23.009495980000001</v>
+        <f t="shared" si="0"/>
+        <v>23.009495982468955</v>
       </c>
       <c r="I61">
         <v>57</v>
@@ -8379,7 +8442,8 @@
         <v>112.5</v>
       </c>
       <c r="H62">
-        <v>27.434842249999999</v>
+        <f t="shared" si="0"/>
+        <v>27.434842249657066</v>
       </c>
       <c r="I62">
         <v>18</v>
@@ -8474,7 +8538,8 @@
         <v>111.6</v>
       </c>
       <c r="H63">
-        <v>27.21536351</v>
+        <f t="shared" si="0"/>
+        <v>27.21536351165981</v>
       </c>
       <c r="I63">
         <v>70</v>
@@ -8569,7 +8634,8 @@
         <v>116.1</v>
       </c>
       <c r="H64">
-        <v>28.3127572</v>
+        <f t="shared" si="0"/>
+        <v>28.31275720164609</v>
       </c>
       <c r="I64">
         <v>71</v>
@@ -8664,6 +8730,7 @@
         <v>108</v>
       </c>
       <c r="H65">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="I65">
@@ -8759,7 +8826,8 @@
         <v>102.6</v>
       </c>
       <c r="H66">
-        <v>26.303477010000002</v>
+        <f t="shared" si="0"/>
+        <v>26.303477006889921</v>
       </c>
       <c r="I66">
         <v>78</v>
@@ -8854,7 +8922,8 @@
         <v>99</v>
       </c>
       <c r="H67">
-        <v>25.38054799</v>
+        <f t="shared" ref="H67:H130" si="1">G67/D67/D67*10000</f>
+        <v>25.380547989104311</v>
       </c>
       <c r="I67">
         <v>23</v>
@@ -8949,7 +9018,8 @@
         <v>103.5</v>
       </c>
       <c r="H68">
-        <v>24.628197499999999</v>
+        <f t="shared" si="1"/>
+        <v>24.628197501487211</v>
       </c>
       <c r="I68">
         <v>66</v>
@@ -9044,7 +9114,8 @@
         <v>114.75</v>
       </c>
       <c r="H69">
-        <v>26.65118305</v>
+        <f t="shared" si="1"/>
+        <v>26.651183045434749</v>
       </c>
       <c r="I69">
         <v>75</v>
@@ -9138,6 +9209,10 @@
       <c r="G70">
         <v>105</v>
       </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>23.584375912490732</v>
+      </c>
       <c r="I70">
         <v>64</v>
       </c>
@@ -9231,7 +9306,8 @@
         <v>94.05</v>
       </c>
       <c r="H71">
-        <v>24.111520590000001</v>
+        <f t="shared" si="1"/>
+        <v>24.111520589649089</v>
       </c>
       <c r="I71">
         <v>67</v>
@@ -9326,7 +9402,8 @@
         <v>110.25</v>
       </c>
       <c r="H72">
-        <v>26.234384299999999</v>
+        <f t="shared" si="1"/>
+        <v>26.234384295062465</v>
       </c>
       <c r="I72">
         <v>60</v>
@@ -9421,7 +9498,8 @@
         <v>105.75</v>
       </c>
       <c r="H73">
-        <v>24.560894179999998</v>
+        <f t="shared" si="1"/>
+        <v>24.560894179126141</v>
       </c>
       <c r="I73">
         <v>44</v>
@@ -9516,7 +9594,8 @@
         <v>107.55</v>
       </c>
       <c r="H74">
-        <v>26.227709189999999</v>
+        <f t="shared" si="1"/>
+        <v>26.227709190672151</v>
       </c>
       <c r="I74">
         <v>50</v>
@@ -9611,7 +9690,8 @@
         <v>90</v>
       </c>
       <c r="H75">
-        <v>23.073225440000002</v>
+        <f t="shared" si="1"/>
+        <v>23.073225444640283</v>
       </c>
       <c r="I75">
         <v>12</v>
@@ -9706,7 +9786,8 @@
         <v>92.7</v>
       </c>
       <c r="H76">
-        <v>24.37869822</v>
+        <f t="shared" si="1"/>
+        <v>24.378698224852073</v>
       </c>
       <c r="I76">
         <v>29</v>
@@ -9801,7 +9882,8 @@
         <v>119.25</v>
       </c>
       <c r="H77">
-        <v>27.040816329999998</v>
+        <f t="shared" si="1"/>
+        <v>27.04081632653061</v>
       </c>
       <c r="I77">
         <v>74</v>
@@ -9896,7 +9978,8 @@
         <v>78.75</v>
       </c>
       <c r="H78">
-        <v>24.305555559999998</v>
+        <f t="shared" si="1"/>
+        <v>24.305555555555557</v>
       </c>
       <c r="I78">
         <v>82</v>
@@ -9991,7 +10074,8 @@
         <v>108</v>
       </c>
       <c r="H79">
-        <v>28.402366860000001</v>
+        <f t="shared" si="1"/>
+        <v>28.402366863905328</v>
       </c>
       <c r="I79">
         <v>29</v>
@@ -10086,7 +10170,8 @@
         <v>90</v>
       </c>
       <c r="H80">
-        <v>24.930747920000002</v>
+        <f t="shared" si="1"/>
+        <v>24.930747922437671</v>
       </c>
       <c r="I80">
         <v>62</v>
@@ -10181,7 +10266,8 @@
         <v>101.25</v>
       </c>
       <c r="H81">
-        <v>26.627218930000002</v>
+        <f t="shared" si="1"/>
+        <v>26.627218934911248</v>
       </c>
       <c r="I81">
         <v>70</v>
@@ -10275,6 +10361,10 @@
       <c r="G82">
         <v>88</v>
       </c>
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>22.907122032486466</v>
+      </c>
       <c r="I82">
         <v>21</v>
       </c>
@@ -10368,6 +10458,7 @@
         <v>94.5</v>
       </c>
       <c r="H83">
+        <f t="shared" si="1"/>
         <v>23.625</v>
       </c>
       <c r="I83">
@@ -10463,7 +10554,8 @@
         <v>108</v>
       </c>
       <c r="H84">
-        <v>25.698988700000001</v>
+        <f t="shared" si="1"/>
+        <v>25.698988697204047</v>
       </c>
       <c r="I84">
         <v>12</v>
@@ -10557,6 +10649,10 @@
       <c r="G85">
         <v>109</v>
       </c>
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>24.025215455487224</v>
+      </c>
       <c r="I85">
         <v>62</v>
       </c>
@@ -10650,7 +10746,8 @@
         <v>112.5</v>
       </c>
       <c r="H86">
-        <v>26.12861083</v>
+        <f t="shared" si="1"/>
+        <v>26.128610828857596</v>
       </c>
       <c r="I86">
         <v>61</v>
@@ -10745,7 +10842,8 @@
         <v>83.7</v>
       </c>
       <c r="H87">
-        <v>20.41152263</v>
+        <f t="shared" si="1"/>
+        <v>20.411522633744855</v>
       </c>
       <c r="I87">
         <v>80</v>
@@ -10840,7 +10938,8 @@
         <v>98.1</v>
       </c>
       <c r="H88">
-        <v>23.923182440000001</v>
+        <f t="shared" si="1"/>
+        <v>23.923182441700956</v>
       </c>
       <c r="I88">
         <v>50</v>
@@ -10935,7 +11034,8 @@
         <v>86.85</v>
       </c>
       <c r="H89">
-        <v>24.704000000000001</v>
+        <f t="shared" si="1"/>
+        <v>24.703999999999997</v>
       </c>
       <c r="I89">
         <v>79</v>
@@ -11030,7 +11130,8 @@
         <v>90</v>
       </c>
       <c r="H90">
-        <v>24.287400909999999</v>
+        <f t="shared" si="1"/>
+        <v>24.287400910777535</v>
       </c>
       <c r="I90">
         <v>77</v>
@@ -11125,7 +11226,8 @@
         <v>82.35</v>
       </c>
       <c r="H91">
-        <v>25.416666670000001</v>
+        <f t="shared" si="1"/>
+        <v>25.416666666666664</v>
       </c>
       <c r="I91">
         <v>82</v>
@@ -11220,7 +11322,8 @@
         <v>101.25</v>
       </c>
       <c r="H92">
-        <v>26.627218930000002</v>
+        <f t="shared" si="1"/>
+        <v>26.627218934911248</v>
       </c>
       <c r="I92">
         <v>33</v>
@@ -11315,6 +11418,7 @@
         <v>87.75</v>
       </c>
       <c r="H93">
+        <f t="shared" si="1"/>
         <v>24.96</v>
       </c>
       <c r="I93">
@@ -11410,7 +11514,8 @@
         <v>102.6</v>
       </c>
       <c r="H94">
-        <v>24.414039259999999</v>
+        <f t="shared" si="1"/>
+        <v>24.414039262343842</v>
       </c>
       <c r="I94">
         <v>68</v>
@@ -11505,7 +11610,8 @@
         <v>101.25</v>
       </c>
       <c r="H95">
-        <v>24.092801900000001</v>
+        <f t="shared" si="1"/>
+        <v>24.092801903628793</v>
       </c>
       <c r="I95">
         <v>59</v>
@@ -11600,7 +11706,8 @@
         <v>99.9</v>
       </c>
       <c r="H96">
-        <v>24.362139920000001</v>
+        <f t="shared" si="1"/>
+        <v>24.362139917695476</v>
       </c>
       <c r="I96">
         <v>30</v>
@@ -11695,7 +11802,8 @@
         <v>96.75</v>
       </c>
       <c r="H97">
-        <v>25.443786979999999</v>
+        <f t="shared" si="1"/>
+        <v>25.443786982248518</v>
       </c>
       <c r="I97">
         <v>81</v>
@@ -11790,6 +11898,7 @@
         <v>103.5</v>
       </c>
       <c r="H98">
+        <f t="shared" si="1"/>
         <v>25.875</v>
       </c>
       <c r="I98">
@@ -11885,7 +11994,8 @@
         <v>85.5</v>
       </c>
       <c r="H99">
-        <v>22.4852071</v>
+        <f t="shared" si="1"/>
+        <v>22.485207100591715</v>
       </c>
       <c r="I99">
         <v>82</v>
@@ -11980,7 +12090,8 @@
         <v>105.75</v>
       </c>
       <c r="H100">
-        <v>26.4375</v>
+        <f t="shared" si="1"/>
+        <v>26.437500000000004</v>
       </c>
       <c r="I100">
         <v>5</v>
@@ -12075,7 +12186,8 @@
         <v>85.5</v>
       </c>
       <c r="H101">
-        <v>23.684210530000001</v>
+        <f t="shared" si="1"/>
+        <v>23.684210526315791</v>
       </c>
       <c r="I101">
         <v>38</v>
@@ -12170,7 +12282,8 @@
         <v>105.75</v>
       </c>
       <c r="H102">
-        <v>25.78875171</v>
+        <f t="shared" si="1"/>
+        <v>25.788751714677641</v>
       </c>
       <c r="I102">
         <v>58</v>
@@ -12265,7 +12378,8 @@
         <v>78.75</v>
       </c>
       <c r="H103">
-        <v>24.305555559999998</v>
+        <f t="shared" si="1"/>
+        <v>24.305555555555557</v>
       </c>
       <c r="I103">
         <v>45</v>
@@ -12360,7 +12474,8 @@
         <v>110.25</v>
       </c>
       <c r="H104">
-        <v>26.8861454</v>
+        <f t="shared" si="1"/>
+        <v>26.886145404663917</v>
       </c>
       <c r="I104">
         <v>49</v>
@@ -12455,7 +12570,8 @@
         <v>74.25</v>
       </c>
       <c r="H105">
-        <v>23.56675263</v>
+        <f t="shared" si="1"/>
+        <v>23.566752628446736</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -12549,6 +12665,10 @@
       <c r="G106">
         <v>104</v>
       </c>
+      <c r="H106">
+        <f t="shared" si="1"/>
+        <v>24.03846153846154</v>
+      </c>
       <c r="I106">
         <v>2</v>
       </c>
@@ -12642,7 +12762,8 @@
         <v>112.5</v>
       </c>
       <c r="H107">
-        <v>27.434842249999999</v>
+        <f t="shared" si="1"/>
+        <v>27.434842249657066</v>
       </c>
       <c r="I107">
         <v>66</v>
@@ -12737,7 +12858,8 @@
         <v>119.25</v>
       </c>
       <c r="H108">
-        <v>27.696327480000001</v>
+        <f t="shared" si="1"/>
+        <v>27.696327478589051</v>
       </c>
       <c r="I108">
         <v>82</v>
@@ -12832,7 +12954,8 @@
         <v>121.5</v>
       </c>
       <c r="H109">
-        <v>31.148854350000001</v>
+        <f t="shared" si="1"/>
+        <v>31.148854350264379</v>
       </c>
       <c r="I109">
         <v>29</v>
@@ -12927,7 +13050,8 @@
         <v>99.45</v>
       </c>
       <c r="H110">
-        <v>25.495914119999998</v>
+        <f t="shared" si="1"/>
+        <v>25.495914116327512</v>
       </c>
       <c r="I110">
         <v>60</v>
@@ -13022,7 +13146,8 @@
         <v>121.5</v>
       </c>
       <c r="H111">
-        <v>28.218899700000001</v>
+        <f t="shared" si="1"/>
+        <v>28.218899695166204</v>
       </c>
       <c r="I111">
         <v>59</v>
@@ -13117,6 +13242,7 @@
         <v>96.75</v>
       </c>
       <c r="H112">
+        <f t="shared" si="1"/>
         <v>24.1875</v>
       </c>
       <c r="I112">
@@ -13212,7 +13338,8 @@
         <v>77.400000000000006</v>
       </c>
       <c r="H113">
-        <v>23.238881589999998</v>
+        <f t="shared" si="1"/>
+        <v>23.238881591292927</v>
       </c>
       <c r="I113">
         <v>77</v>
@@ -13306,6 +13433,10 @@
       <c r="G114">
         <v>90</v>
       </c>
+      <c r="H114">
+        <f t="shared" si="1"/>
+        <v>24.930747922437671</v>
+      </c>
       <c r="I114">
         <v>68</v>
       </c>
@@ -13399,7 +13530,8 @@
         <v>119.25</v>
       </c>
       <c r="H115">
-        <v>28.375966689999998</v>
+        <f t="shared" si="1"/>
+        <v>28.375966686496131</v>
       </c>
       <c r="I115">
         <v>74</v>
@@ -13494,6 +13626,7 @@
         <v>85.5</v>
       </c>
       <c r="H116">
+        <f t="shared" si="1"/>
         <v>24.32</v>
       </c>
       <c r="I116">
@@ -13588,6 +13721,10 @@
       <c r="G117">
         <v>108</v>
       </c>
+      <c r="H117">
+        <f t="shared" si="1"/>
+        <v>26.207867213472788</v>
+      </c>
       <c r="I117">
         <v>74</v>
       </c>
@@ -13681,7 +13818,8 @@
         <v>86.4</v>
       </c>
       <c r="H118">
-        <v>24.576000000000001</v>
+        <f t="shared" si="1"/>
+        <v>24.576000000000004</v>
       </c>
       <c r="I118">
         <v>76</v>
@@ -13776,7 +13914,8 @@
         <v>90</v>
       </c>
       <c r="H119">
-        <v>23.668639049999999</v>
+        <f t="shared" si="1"/>
+        <v>23.668639053254438</v>
       </c>
       <c r="I119">
         <v>16</v>
@@ -13871,6 +14010,7 @@
         <v>110.25</v>
       </c>
       <c r="H120">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I120">
@@ -13962,6 +14102,10 @@
       <c r="G121">
         <v>102</v>
       </c>
+      <c r="H121">
+        <f t="shared" si="1"/>
+        <v>27.383285457327712</v>
+      </c>
       <c r="I121">
         <v>80</v>
       </c>
@@ -14055,6 +14199,7 @@
         <v>110.25</v>
       </c>
       <c r="H122">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I122">
@@ -14150,7 +14295,8 @@
         <v>92.25</v>
       </c>
       <c r="H123">
-        <v>26.24</v>
+        <f t="shared" si="1"/>
+        <v>26.240000000000002</v>
       </c>
       <c r="I123">
         <v>53</v>
@@ -14245,7 +14391,8 @@
         <v>99.9</v>
       </c>
       <c r="H124">
-        <v>22.653061220000001</v>
+        <f t="shared" si="1"/>
+        <v>22.653061224489797</v>
       </c>
       <c r="I124">
         <v>71</v>
@@ -14339,6 +14486,10 @@
       <c r="G125">
         <v>92</v>
       </c>
+      <c r="H125">
+        <f t="shared" si="1"/>
+        <v>21.679705910076351</v>
+      </c>
       <c r="I125">
         <v>48</v>
       </c>
@@ -14432,6 +14583,7 @@
         <v>101.25</v>
       </c>
       <c r="H126">
+        <f t="shared" si="1"/>
         <v>25.3125</v>
       </c>
       <c r="I126">
@@ -14527,7 +14679,8 @@
         <v>103.5</v>
       </c>
       <c r="H127">
-        <v>26.534209260000001</v>
+        <f t="shared" si="1"/>
+        <v>26.534209261336326</v>
       </c>
       <c r="I127">
         <v>79</v>
@@ -14622,7 +14775,8 @@
         <v>112.5</v>
       </c>
       <c r="H128">
-        <v>26.769779889999999</v>
+        <f t="shared" si="1"/>
+        <v>26.769779892920884</v>
       </c>
       <c r="I128">
         <v>51</v>
@@ -14717,7 +14871,8 @@
         <v>110.25</v>
       </c>
       <c r="H129">
-        <v>26.8861454</v>
+        <f t="shared" si="1"/>
+        <v>26.886145404663917</v>
       </c>
       <c r="I129">
         <v>9</v>
@@ -14812,6 +14967,7 @@
         <v>85.5</v>
       </c>
       <c r="H130">
+        <f t="shared" si="1"/>
         <v>24.32</v>
       </c>
       <c r="I130">
@@ -14907,7 +15063,8 @@
         <v>119.25</v>
       </c>
       <c r="H131">
-        <v>27.696327480000001</v>
+        <f t="shared" ref="H131:H194" si="2">G131/D131/D131*10000</f>
+        <v>27.696327478589051</v>
       </c>
       <c r="I131">
         <v>41</v>
@@ -15002,7 +15159,8 @@
         <v>108</v>
       </c>
       <c r="H132">
-        <v>25.083466399999999</v>
+        <f t="shared" si="2"/>
+        <v>25.083466395703294</v>
       </c>
       <c r="I132">
         <v>29</v>
@@ -15078,8 +15236,27 @@
       <c r="A133" t="s">
         <v>191</v>
       </c>
+      <c r="B133">
+        <v>33</v>
+      </c>
       <c r="C133" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D133">
+        <v>193</v>
+      </c>
+      <c r="E133" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" t="s">
+        <v>64</v>
+      </c>
+      <c r="G133">
+        <v>99</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="2"/>
+        <v>26.577894708582782</v>
       </c>
       <c r="I133">
         <v>62</v>
@@ -15174,7 +15351,8 @@
         <v>112.5</v>
       </c>
       <c r="H134">
-        <v>25.510204080000001</v>
+        <f t="shared" si="2"/>
+        <v>25.510204081632651</v>
       </c>
       <c r="I134">
         <v>16</v>
@@ -15269,7 +15447,8 @@
         <v>101.25</v>
       </c>
       <c r="H135">
-        <v>24.092801900000001</v>
+        <f t="shared" si="2"/>
+        <v>24.092801903628793</v>
       </c>
       <c r="I135">
         <v>10</v>
@@ -15364,7 +15543,8 @@
         <v>108</v>
       </c>
       <c r="H136">
-        <v>25.698988700000001</v>
+        <f t="shared" si="2"/>
+        <v>25.698988697204047</v>
       </c>
       <c r="I136">
         <v>79</v>
@@ -15440,8 +15620,27 @@
       <c r="A137" t="s">
         <v>195</v>
       </c>
+      <c r="B137">
+        <v>27</v>
+      </c>
       <c r="C137" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D137">
+        <v>208</v>
+      </c>
+      <c r="E137" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G137">
+        <v>108</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="2"/>
+        <v>24.963017751479292</v>
       </c>
       <c r="I137">
         <v>33</v>
@@ -15536,7 +15735,8 @@
         <v>83.25</v>
       </c>
       <c r="H138">
-        <v>23.060941830000001</v>
+        <f t="shared" si="2"/>
+        <v>23.060941828254848</v>
       </c>
       <c r="I138">
         <v>82</v>
@@ -15612,8 +15812,27 @@
       <c r="A139" t="s">
         <v>197</v>
       </c>
+      <c r="B139">
+        <v>27</v>
+      </c>
       <c r="C139" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D139">
+        <v>198</v>
+      </c>
+      <c r="E139" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" t="s">
+        <v>45</v>
+      </c>
+      <c r="G139">
+        <v>102</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="2"/>
+        <v>26.017753290480563</v>
       </c>
       <c r="I139">
         <v>47</v>
@@ -15689,8 +15908,27 @@
       <c r="A140" t="s">
         <v>198</v>
       </c>
+      <c r="B140">
+        <v>25</v>
+      </c>
       <c r="C140" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D140">
+        <v>196</v>
+      </c>
+      <c r="E140" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" t="s">
+        <v>45</v>
+      </c>
+      <c r="G140">
+        <v>86</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="2"/>
+        <v>22.386505622657229</v>
       </c>
       <c r="I140">
         <v>13</v>
@@ -15785,6 +16023,7 @@
         <v>123.75</v>
       </c>
       <c r="H141">
+        <f t="shared" si="2"/>
         <v>30.9375</v>
       </c>
       <c r="I141">
@@ -15880,7 +16119,8 @@
         <v>110.25</v>
       </c>
       <c r="H142">
-        <v>25.606038609999999</v>
+        <f t="shared" si="2"/>
+        <v>25.606038612280443</v>
       </c>
       <c r="I142">
         <v>75</v>
@@ -15975,7 +16215,8 @@
         <v>85.5</v>
       </c>
       <c r="H143">
-        <v>25.670857569999999</v>
+        <f t="shared" si="2"/>
+        <v>25.67085757177707</v>
       </c>
       <c r="I143">
         <v>81</v>
@@ -16070,7 +16311,8 @@
         <v>96.75</v>
       </c>
       <c r="H144">
-        <v>26.80055402</v>
+        <f t="shared" si="2"/>
+        <v>26.800554016620499</v>
       </c>
       <c r="I144">
         <v>61</v>
@@ -16165,7 +16407,8 @@
         <v>83.25</v>
       </c>
       <c r="H145">
-        <v>23.060941830000001</v>
+        <f t="shared" si="2"/>
+        <v>23.060941828254848</v>
       </c>
       <c r="I145">
         <v>43</v>
@@ -16260,7 +16503,8 @@
         <v>105.75</v>
       </c>
       <c r="H146">
-        <v>25.1635931</v>
+        <f t="shared" si="2"/>
+        <v>25.163593099345629</v>
       </c>
       <c r="I146">
         <v>58</v>
@@ -16355,7 +16599,8 @@
         <v>85.95</v>
       </c>
       <c r="H147">
-        <v>23.808864270000001</v>
+        <f t="shared" si="2"/>
+        <v>23.80886426592798</v>
       </c>
       <c r="I147">
         <v>56</v>
@@ -16450,7 +16695,8 @@
         <v>92.25</v>
       </c>
       <c r="H148">
-        <v>23.650056079999999</v>
+        <f t="shared" si="2"/>
+        <v>23.650056080756286</v>
       </c>
       <c r="I148">
         <v>58</v>
@@ -16545,7 +16791,8 @@
         <v>114.75</v>
       </c>
       <c r="H149">
-        <v>26.65118305</v>
+        <f t="shared" si="2"/>
+        <v>26.651183045434749</v>
       </c>
       <c r="I149">
         <v>82</v>
@@ -16621,8 +16868,27 @@
       <c r="A150" t="s">
         <v>209</v>
       </c>
+      <c r="B150">
+        <v>25</v>
+      </c>
       <c r="C150" t="s">
         <v>555</v>
+      </c>
+      <c r="D150">
+        <v>211</v>
+      </c>
+      <c r="E150" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" t="s">
+        <v>68</v>
+      </c>
+      <c r="G150">
+        <v>115</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="2"/>
+        <v>25.830506951775565</v>
       </c>
       <c r="I150">
         <v>46</v>
@@ -16717,7 +16983,8 @@
         <v>87.75</v>
       </c>
       <c r="H151">
-        <v>22.496394810000002</v>
+        <f t="shared" si="2"/>
+        <v>22.496394808524272</v>
       </c>
       <c r="I151">
         <v>14</v>
@@ -16812,7 +17079,8 @@
         <v>108</v>
       </c>
       <c r="H152">
-        <v>25.698988700000001</v>
+        <f t="shared" si="2"/>
+        <v>25.698988697204047</v>
       </c>
       <c r="I152">
         <v>41</v>
@@ -16907,6 +17175,7 @@
         <v>85.95</v>
       </c>
       <c r="H153">
+        <f t="shared" si="2"/>
         <v>24.448</v>
       </c>
       <c r="I153">
@@ -17002,7 +17271,8 @@
         <v>87.75</v>
       </c>
       <c r="H154">
-        <v>23.07692308</v>
+        <f t="shared" si="2"/>
+        <v>23.07692307692308</v>
       </c>
       <c r="I154">
         <v>52</v>
@@ -17097,7 +17367,8 @@
         <v>94.5</v>
       </c>
       <c r="H155">
-        <v>26.177285319999999</v>
+        <f t="shared" si="2"/>
+        <v>26.177285318559559</v>
       </c>
       <c r="I155">
         <v>55</v>
@@ -17192,7 +17463,8 @@
         <v>94.5</v>
       </c>
       <c r="H156">
-        <v>26.177285319999999</v>
+        <f t="shared" si="2"/>
+        <v>26.177285318559559</v>
       </c>
       <c r="I156">
         <v>54</v>
@@ -17287,6 +17559,7 @@
         <v>84.6</v>
       </c>
       <c r="H157">
+        <f t="shared" si="2"/>
         <v>24.064</v>
       </c>
       <c r="I157">
@@ -17382,7 +17655,8 @@
         <v>92.25</v>
       </c>
       <c r="H158">
-        <v>23.650056079999999</v>
+        <f t="shared" si="2"/>
+        <v>23.650056080756286</v>
       </c>
       <c r="I158">
         <v>74</v>
@@ -17477,7 +17751,8 @@
         <v>96.75</v>
       </c>
       <c r="H159">
-        <v>26.108955980000001</v>
+        <f t="shared" si="2"/>
+        <v>26.108955979085849</v>
       </c>
       <c r="I159">
         <v>80</v>
@@ -17553,8 +17828,27 @@
       <c r="A160" t="s">
         <v>219</v>
       </c>
+      <c r="B160">
+        <v>32</v>
+      </c>
       <c r="C160" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D160">
+        <v>201</v>
+      </c>
+      <c r="E160" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160" t="s">
+        <v>90</v>
+      </c>
+      <c r="G160">
+        <v>97</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="2"/>
+        <v>24.009306700329201</v>
       </c>
       <c r="I160">
         <v>32</v>
@@ -17649,7 +17943,8 @@
         <v>99.9</v>
       </c>
       <c r="H161">
-        <v>23.20220642</v>
+        <f t="shared" si="2"/>
+        <v>23.20220641602555</v>
       </c>
       <c r="I161">
         <v>81</v>
@@ -17725,8 +18020,27 @@
       <c r="A162" t="s">
         <v>221</v>
       </c>
+      <c r="B162">
+        <v>27</v>
+      </c>
       <c r="C162" t="s">
         <v>555</v>
+      </c>
+      <c r="D162">
+        <v>203</v>
+      </c>
+      <c r="E162" t="s">
+        <v>54</v>
+      </c>
+      <c r="F162" t="s">
+        <v>90</v>
+      </c>
+      <c r="G162">
+        <v>97</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="2"/>
+        <v>23.538547404693151</v>
       </c>
       <c r="I162">
         <v>21</v>
@@ -17821,7 +18135,8 @@
         <v>130.05000000000001</v>
       </c>
       <c r="H163">
-        <v>31.714677640000001</v>
+        <f t="shared" si="2"/>
+        <v>31.714677640603568</v>
       </c>
       <c r="I163">
         <v>74</v>
@@ -17916,7 +18231,8 @@
         <v>92.7</v>
       </c>
       <c r="H164">
-        <v>24.37869822</v>
+        <f t="shared" si="2"/>
+        <v>24.378698224852073</v>
       </c>
       <c r="I164">
         <v>5</v>
@@ -17992,8 +18308,27 @@
       <c r="A165" t="s">
         <v>224</v>
       </c>
+      <c r="B165">
+        <v>21</v>
+      </c>
       <c r="C165" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D165">
+        <v>198</v>
+      </c>
+      <c r="E165" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165" t="s">
+        <v>105</v>
+      </c>
+      <c r="G165">
+        <v>100</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="2"/>
+        <v>25.507601265177026</v>
       </c>
       <c r="I165">
         <v>35</v>
@@ -18088,6 +18423,7 @@
         <v>85.5</v>
       </c>
       <c r="H166">
+        <f t="shared" si="2"/>
         <v>24.32</v>
       </c>
       <c r="I166">
@@ -18183,7 +18519,8 @@
         <v>101.7</v>
       </c>
       <c r="H167">
-        <v>25.425000000000001</v>
+        <f t="shared" si="2"/>
+        <v>25.425000000000004</v>
       </c>
       <c r="I167">
         <v>76</v>
@@ -18278,7 +18615,8 @@
         <v>108.45</v>
       </c>
       <c r="H168">
-        <v>25.187980840000002</v>
+        <f t="shared" si="2"/>
+        <v>25.187980839018724</v>
       </c>
       <c r="I168">
         <v>73</v>
@@ -18373,7 +18711,8 @@
         <v>105.75</v>
       </c>
       <c r="H169">
-        <v>25.1635931</v>
+        <f t="shared" si="2"/>
+        <v>25.163593099345629</v>
       </c>
       <c r="I169">
         <v>8</v>
@@ -18468,7 +18807,8 @@
         <v>119.25</v>
       </c>
       <c r="H170">
-        <v>27.696327480000001</v>
+        <f t="shared" si="2"/>
+        <v>27.696327478589051</v>
       </c>
       <c r="I170">
         <v>69</v>
@@ -18563,7 +18903,8 @@
         <v>112.5</v>
       </c>
       <c r="H171">
-        <v>26.769779889999999</v>
+        <f t="shared" si="2"/>
+        <v>26.769779892920884</v>
       </c>
       <c r="I171">
         <v>42</v>
@@ -18658,7 +18999,8 @@
         <v>117</v>
       </c>
       <c r="H172">
-        <v>27.17375526</v>
+        <f t="shared" si="2"/>
+        <v>27.173755262011898</v>
       </c>
       <c r="I172">
         <v>17</v>
@@ -18753,7 +19095,8 @@
         <v>97.65</v>
       </c>
       <c r="H173">
-        <v>25.680473370000001</v>
+        <f t="shared" si="2"/>
+        <v>25.680473372781066</v>
       </c>
       <c r="I173">
         <v>82</v>
@@ -18848,6 +19191,7 @@
         <v>94.5</v>
       </c>
       <c r="H174">
+        <f t="shared" si="2"/>
         <v>23.625</v>
       </c>
       <c r="I174">
@@ -18924,8 +19268,27 @@
       <c r="A175" t="s">
         <v>234</v>
       </c>
+      <c r="B175">
+        <v>25</v>
+      </c>
       <c r="C175" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D175">
+        <v>213</v>
+      </c>
+      <c r="E175" t="s">
+        <v>38</v>
+      </c>
+      <c r="F175" t="s">
+        <v>64</v>
+      </c>
+      <c r="G175">
+        <v>120</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="2"/>
+        <v>26.449778483105206</v>
       </c>
       <c r="I175">
         <v>48</v>
@@ -19001,8 +19364,27 @@
       <c r="A176" t="s">
         <v>235</v>
       </c>
+      <c r="B176">
+        <v>35</v>
+      </c>
       <c r="C176" t="s">
         <v>555</v>
+      </c>
+      <c r="D176">
+        <v>208</v>
+      </c>
+      <c r="E176" t="s">
+        <v>54</v>
+      </c>
+      <c r="F176" t="s">
+        <v>98</v>
+      </c>
+      <c r="G176">
+        <v>99</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="2"/>
+        <v>22.88276627218935</v>
       </c>
       <c r="I176">
         <v>62</v>
@@ -19078,8 +19460,27 @@
       <c r="A177" t="s">
         <v>236</v>
       </c>
+      <c r="B177">
+        <v>24</v>
+      </c>
       <c r="C177" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D177">
+        <v>208</v>
+      </c>
+      <c r="E177" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177" t="s">
+        <v>105</v>
+      </c>
+      <c r="G177">
+        <v>112</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="2"/>
+        <v>25.88757396449704</v>
       </c>
       <c r="I177">
         <v>73</v>
@@ -19155,8 +19556,27 @@
       <c r="A178" t="s">
         <v>237</v>
       </c>
+      <c r="B178">
+        <v>27</v>
+      </c>
       <c r="C178" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D178">
+        <v>198</v>
+      </c>
+      <c r="E178" t="s">
+        <v>54</v>
+      </c>
+      <c r="F178" t="s">
+        <v>64</v>
+      </c>
+      <c r="G178">
+        <v>99</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="2"/>
+        <v>25.252525252525256</v>
       </c>
       <c r="I178">
         <v>24</v>
@@ -19232,8 +19652,27 @@
       <c r="A179" t="s">
         <v>238</v>
       </c>
+      <c r="B179">
+        <v>23</v>
+      </c>
       <c r="C179" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D179">
+        <v>203</v>
+      </c>
+      <c r="E179" t="s">
+        <v>42</v>
+      </c>
+      <c r="F179" t="s">
+        <v>105</v>
+      </c>
+      <c r="G179">
+        <v>93</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="2"/>
+        <v>22.567885656046009</v>
       </c>
       <c r="I179">
         <v>71</v>
@@ -19328,6 +19767,7 @@
         <v>78.75</v>
       </c>
       <c r="H180">
+        <f t="shared" si="2"/>
         <v>22.4</v>
       </c>
       <c r="I180">
@@ -19423,7 +19863,8 @@
         <v>112.5</v>
       </c>
       <c r="H181">
-        <v>26.12861083</v>
+        <f t="shared" si="2"/>
+        <v>26.128610828857596</v>
       </c>
       <c r="I181">
         <v>61</v>
@@ -19518,7 +19959,8 @@
         <v>99</v>
       </c>
       <c r="H182">
-        <v>26.716141</v>
+        <f t="shared" si="2"/>
+        <v>26.716141001855284</v>
       </c>
       <c r="I182">
         <v>62</v>
@@ -19613,7 +20055,8 @@
         <v>90.45</v>
       </c>
       <c r="H183">
-        <v>27.916666670000001</v>
+        <f t="shared" si="2"/>
+        <v>27.916666666666671</v>
       </c>
       <c r="I183">
         <v>47</v>
@@ -19708,7 +20151,8 @@
         <v>83.25</v>
       </c>
       <c r="H184">
-        <v>27.977315690000001</v>
+        <f t="shared" si="2"/>
+        <v>27.977315689981094</v>
       </c>
       <c r="I184">
         <v>67</v>
@@ -19784,8 +20228,27 @@
       <c r="A185" t="s">
         <v>244</v>
       </c>
+      <c r="B185">
+        <v>26</v>
+      </c>
       <c r="C185" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D185">
+        <v>183</v>
+      </c>
+      <c r="E185" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" t="s">
+        <v>105</v>
+      </c>
+      <c r="G185">
+        <v>79</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="2"/>
+        <v>23.589835468362743</v>
       </c>
       <c r="I185">
         <v>55</v>
@@ -19880,7 +20343,8 @@
         <v>83.25</v>
       </c>
       <c r="H186">
-        <v>25.694444440000002</v>
+        <f t="shared" si="2"/>
+        <v>25.694444444444446</v>
       </c>
       <c r="I186">
         <v>77</v>
@@ -19975,7 +20439,8 @@
         <v>96.75</v>
       </c>
       <c r="H187">
-        <v>26.80055402</v>
+        <f t="shared" si="2"/>
+        <v>26.800554016620499</v>
       </c>
       <c r="I187">
         <v>19</v>
@@ -20051,8 +20516,27 @@
       <c r="A188" t="s">
         <v>247</v>
       </c>
+      <c r="B188">
+        <v>19</v>
+      </c>
       <c r="C188" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D188">
+        <v>203</v>
+      </c>
+      <c r="E188" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188" t="s">
+        <v>205</v>
+      </c>
+      <c r="G188">
+        <v>113</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="2"/>
+        <v>27.42119439928171</v>
       </c>
       <c r="I188">
         <v>25</v>
@@ -20147,7 +20631,8 @@
         <v>117</v>
       </c>
       <c r="H189">
-        <v>28.53223594</v>
+        <f t="shared" si="2"/>
+        <v>28.532235939643346</v>
       </c>
       <c r="I189">
         <v>16</v>
@@ -20242,7 +20727,8 @@
         <v>105.75</v>
       </c>
       <c r="H190">
-        <v>27.810650890000002</v>
+        <f t="shared" si="2"/>
+        <v>27.81065088757396</v>
       </c>
       <c r="I190">
         <v>82</v>
@@ -20318,8 +20804,27 @@
       <c r="A191" t="s">
         <v>250</v>
       </c>
+      <c r="B191">
+        <v>21</v>
+      </c>
       <c r="C191" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D191">
+        <v>206</v>
+      </c>
+      <c r="E191" t="s">
+        <v>54</v>
+      </c>
+      <c r="F191" t="s">
+        <v>105</v>
+      </c>
+      <c r="G191">
+        <v>97</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="2"/>
+        <v>22.857950796493547</v>
       </c>
       <c r="I191">
         <v>74</v>
@@ -20414,7 +20919,8 @@
         <v>85.95</v>
       </c>
       <c r="H192">
-        <v>23.19446787</v>
+        <f t="shared" si="2"/>
+        <v>23.194467869792547</v>
       </c>
       <c r="I192">
         <v>3</v>
@@ -20509,7 +21015,8 @@
         <v>90</v>
       </c>
       <c r="H193">
-        <v>24.287400909999999</v>
+        <f t="shared" si="2"/>
+        <v>24.287400910777535</v>
       </c>
       <c r="I193">
         <v>64</v>
@@ -20604,7 +21111,8 @@
         <v>85.5</v>
       </c>
       <c r="H194">
-        <v>26.38888889</v>
+        <f t="shared" si="2"/>
+        <v>26.388888888888889</v>
       </c>
       <c r="I194">
         <v>63</v>
@@ -20699,7 +21207,8 @@
         <v>94.5</v>
       </c>
       <c r="H195">
-        <v>24.22688672</v>
+        <f t="shared" ref="H195:H258" si="3">G195/D195/D195*10000</f>
+        <v>24.226886716872297</v>
       </c>
       <c r="I195">
         <v>62</v>
@@ -20794,7 +21303,8 @@
         <v>99</v>
       </c>
       <c r="H196">
-        <v>26.716141</v>
+        <f t="shared" si="3"/>
+        <v>26.716141001855284</v>
       </c>
       <c r="I196">
         <v>81</v>
@@ -20889,7 +21399,8 @@
         <v>112.5</v>
       </c>
       <c r="H197">
-        <v>27.434842249999999</v>
+        <f t="shared" si="3"/>
+        <v>27.434842249657066</v>
       </c>
       <c r="I197">
         <v>70</v>
@@ -20984,6 +21495,7 @@
         <v>98.1</v>
       </c>
       <c r="H198">
+        <f t="shared" si="3"/>
         <v>24.524999999999999</v>
       </c>
       <c r="I198">
@@ -21079,7 +21591,8 @@
         <v>103.5</v>
       </c>
       <c r="H199">
-        <v>25.240054870000002</v>
+        <f t="shared" si="3"/>
+        <v>25.240054869684496</v>
       </c>
       <c r="I199">
         <v>15</v>
@@ -21155,8 +21668,27 @@
       <c r="A200" t="s">
         <v>259</v>
       </c>
+      <c r="B200">
+        <v>19</v>
+      </c>
       <c r="C200" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D200">
+        <v>198</v>
+      </c>
+      <c r="E200" t="s">
+        <v>42</v>
+      </c>
+      <c r="F200" t="s">
+        <v>90</v>
+      </c>
+      <c r="G200">
+        <v>97</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="3"/>
+        <v>24.742373227221712</v>
       </c>
       <c r="I200">
         <v>31</v>
@@ -21251,7 +21783,8 @@
         <v>102.15</v>
       </c>
       <c r="H201">
-        <v>24.910836759999999</v>
+        <f t="shared" si="3"/>
+        <v>24.910836762688614</v>
       </c>
       <c r="I201">
         <v>24</v>
@@ -21346,7 +21879,8 @@
         <v>78.75</v>
       </c>
       <c r="H202">
-        <v>23.644210919999999</v>
+        <f t="shared" si="3"/>
+        <v>23.644210921373617</v>
       </c>
       <c r="I202">
         <v>9</v>
@@ -21441,7 +21975,8 @@
         <v>87.75</v>
       </c>
       <c r="H203">
-        <v>24.307479220000001</v>
+        <f t="shared" si="3"/>
+        <v>24.307479224376731</v>
       </c>
       <c r="I203">
         <v>19</v>
@@ -21536,7 +22071,8 @@
         <v>101.25</v>
       </c>
       <c r="H204">
-        <v>25.957378630000001</v>
+        <f t="shared" si="3"/>
+        <v>25.957378625220315</v>
       </c>
       <c r="I204">
         <v>72</v>
@@ -21631,7 +22167,8 @@
         <v>117</v>
       </c>
       <c r="H205">
-        <v>28.53223594</v>
+        <f t="shared" si="3"/>
+        <v>28.532235939643346</v>
       </c>
       <c r="I205">
         <v>58</v>
@@ -21707,8 +22244,27 @@
       <c r="A206" t="s">
         <v>265</v>
       </c>
+      <c r="B206">
+        <v>21</v>
+      </c>
       <c r="C206" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D206">
+        <v>206</v>
+      </c>
+      <c r="E206" t="s">
+        <v>16</v>
+      </c>
+      <c r="F206" t="s">
+        <v>147</v>
+      </c>
+      <c r="G206">
+        <v>119</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="3"/>
+        <v>28.042228296729192</v>
       </c>
       <c r="I206">
         <v>19</v>
@@ -21803,7 +22359,8 @@
         <v>90</v>
       </c>
       <c r="H207">
-        <v>25.6</v>
+        <f t="shared" si="3"/>
+        <v>25.599999999999998</v>
       </c>
       <c r="I207">
         <v>80</v>
@@ -21898,7 +22455,8 @@
         <v>117</v>
       </c>
       <c r="H208">
-        <v>29.99519308</v>
+        <f t="shared" si="3"/>
+        <v>29.995193078032369</v>
       </c>
       <c r="I208">
         <v>61</v>
@@ -21993,7 +22551,8 @@
         <v>99</v>
       </c>
       <c r="H209">
-        <v>26.035502959999999</v>
+        <f t="shared" si="3"/>
+        <v>26.03550295857988</v>
       </c>
       <c r="I209">
         <v>19</v>
@@ -22069,8 +22628,27 @@
       <c r="A210" t="s">
         <v>269</v>
       </c>
+      <c r="B210">
+        <v>28</v>
+      </c>
       <c r="C210" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D210">
+        <v>213</v>
+      </c>
+      <c r="E210" t="s">
+        <v>38</v>
+      </c>
+      <c r="F210" t="s">
+        <v>50</v>
+      </c>
+      <c r="G210">
+        <v>111</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="3"/>
+        <v>24.466045096872314</v>
       </c>
       <c r="I210">
         <v>82</v>
@@ -22146,8 +22724,27 @@
       <c r="A211" t="s">
         <v>270</v>
       </c>
+      <c r="B211">
+        <v>37</v>
+      </c>
       <c r="C211" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D211">
+        <v>188</v>
+      </c>
+      <c r="E211" t="s">
+        <v>42</v>
+      </c>
+      <c r="F211" t="s">
+        <v>140</v>
+      </c>
+      <c r="G211">
+        <v>83</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="3"/>
+        <v>23.483476686283385</v>
       </c>
       <c r="I211">
         <v>77</v>
@@ -22223,8 +22820,27 @@
       <c r="A212" t="s">
         <v>271</v>
       </c>
+      <c r="B212">
+        <v>28</v>
+      </c>
       <c r="C212" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D212">
+        <v>211</v>
+      </c>
+      <c r="E212" t="s">
+        <v>16</v>
+      </c>
+      <c r="F212" t="s">
+        <v>93</v>
+      </c>
+      <c r="G212">
+        <v>113</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="3"/>
+        <v>25.381280743918602</v>
       </c>
       <c r="I212">
         <v>81</v>
@@ -22319,7 +22935,8 @@
         <v>121.5</v>
       </c>
       <c r="H213">
-        <v>27.55102041</v>
+        <f t="shared" si="3"/>
+        <v>27.551020408163264</v>
       </c>
       <c r="I213">
         <v>23</v>
@@ -22414,7 +23031,8 @@
         <v>110.25</v>
       </c>
       <c r="H214">
-        <v>28.264701169999999</v>
+        <f t="shared" si="3"/>
+        <v>28.264701169684344</v>
       </c>
       <c r="I214">
         <v>17</v>
@@ -22509,7 +23127,8 @@
         <v>108</v>
       </c>
       <c r="H215">
-        <v>26.337448559999999</v>
+        <f t="shared" si="3"/>
+        <v>26.337448559670779</v>
       </c>
       <c r="I215">
         <v>51</v>
@@ -22604,7 +23223,8 @@
         <v>105.75</v>
       </c>
       <c r="H216">
-        <v>25.78875171</v>
+        <f t="shared" si="3"/>
+        <v>25.788751714677641</v>
       </c>
       <c r="I216">
         <v>78</v>
@@ -22699,7 +23319,8 @@
         <v>83.7</v>
       </c>
       <c r="H217">
-        <v>24.455807159999999</v>
+        <f t="shared" si="3"/>
+        <v>24.455807158509863</v>
       </c>
       <c r="I217">
         <v>73</v>
@@ -22775,8 +23396,27 @@
       <c r="A218" t="s">
         <v>277</v>
       </c>
+      <c r="B218">
+        <v>24</v>
+      </c>
       <c r="C218" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D218">
+        <v>213</v>
+      </c>
+      <c r="E218" t="s">
+        <v>38</v>
+      </c>
+      <c r="F218" t="s">
+        <v>52</v>
+      </c>
+      <c r="G218">
+        <v>194</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="3"/>
+        <v>42.76047521435342</v>
       </c>
       <c r="I218">
         <v>37</v>
@@ -22871,7 +23511,8 @@
         <v>101.25</v>
       </c>
       <c r="H219">
-        <v>25.957378630000001</v>
+        <f t="shared" si="3"/>
+        <v>25.957378625220315</v>
       </c>
       <c r="I219">
         <v>29</v>
@@ -22966,6 +23607,7 @@
         <v>94.5</v>
       </c>
       <c r="H220">
+        <f t="shared" si="3"/>
         <v>23.625</v>
       </c>
       <c r="I220">
@@ -23061,7 +23703,8 @@
         <v>90</v>
       </c>
       <c r="H221">
-        <v>25.6</v>
+        <f t="shared" si="3"/>
+        <v>25.599999999999998</v>
       </c>
       <c r="I221">
         <v>6</v>
@@ -23156,7 +23799,8 @@
         <v>90</v>
       </c>
       <c r="H222">
-        <v>21.9478738</v>
+        <f t="shared" si="3"/>
+        <v>21.947873799725649</v>
       </c>
       <c r="I222">
         <v>38</v>
@@ -23251,7 +23895,8 @@
         <v>83.25</v>
       </c>
       <c r="H223">
-        <v>22.46584584</v>
+        <f t="shared" si="3"/>
+        <v>22.465845842469218</v>
       </c>
       <c r="I223">
         <v>47</v>
@@ -23346,7 +23991,8 @@
         <v>90</v>
       </c>
       <c r="H224">
-        <v>25.6</v>
+        <f t="shared" si="3"/>
+        <v>25.599999999999998</v>
       </c>
       <c r="I224">
         <v>74</v>
@@ -23441,7 +24087,8 @@
         <v>113.85</v>
       </c>
       <c r="H225">
-        <v>25.816326530000001</v>
+        <f t="shared" si="3"/>
+        <v>25.816326530612244</v>
       </c>
       <c r="I225">
         <v>44</v>
@@ -23536,6 +24183,7 @@
         <v>110.25</v>
       </c>
       <c r="H226">
+        <f t="shared" si="3"/>
         <v>27.5625</v>
       </c>
       <c r="I226">
@@ -23631,7 +24279,8 @@
         <v>90</v>
       </c>
       <c r="H227">
-        <v>25.6</v>
+        <f t="shared" si="3"/>
+        <v>25.599999999999998</v>
       </c>
       <c r="I227">
         <v>77</v>
@@ -23726,7 +24375,8 @@
         <v>87.75</v>
       </c>
       <c r="H228">
-        <v>25.639152670000001</v>
+        <f t="shared" si="3"/>
+        <v>25.639152666179694</v>
       </c>
       <c r="I228">
         <v>50</v>
@@ -23821,7 +24471,8 @@
         <v>99</v>
       </c>
       <c r="H229">
-        <v>25.38054799</v>
+        <f t="shared" si="3"/>
+        <v>25.380547989104311</v>
       </c>
       <c r="I229">
         <v>65</v>
@@ -23916,7 +24567,8 @@
         <v>108.9</v>
       </c>
       <c r="H230">
-        <v>26.556927300000002</v>
+        <f t="shared" si="3"/>
+        <v>26.556927297668043</v>
       </c>
       <c r="I230">
         <v>73</v>
@@ -24011,7 +24663,8 @@
         <v>85.5</v>
       </c>
       <c r="H231">
-        <v>23.684210530000001</v>
+        <f t="shared" si="3"/>
+        <v>23.684210526315791</v>
       </c>
       <c r="I231">
         <v>78</v>
@@ -24106,7 +24759,8 @@
         <v>103.5</v>
       </c>
       <c r="H232">
-        <v>24.038321960000001</v>
+        <f t="shared" si="3"/>
+        <v>24.038321962548995</v>
       </c>
       <c r="I232">
         <v>67</v>
@@ -24201,7 +24855,8 @@
         <v>94.5</v>
       </c>
       <c r="H233">
-        <v>26.177285319999999</v>
+        <f t="shared" si="3"/>
+        <v>26.177285318559559</v>
       </c>
       <c r="I233">
         <v>60</v>
@@ -24296,7 +24951,8 @@
         <v>98.55</v>
       </c>
       <c r="H234">
-        <v>25.917159760000001</v>
+        <f t="shared" si="3"/>
+        <v>25.917159763313606</v>
       </c>
       <c r="I234">
         <v>51</v>
@@ -24391,7 +25047,8 @@
         <v>101.7</v>
       </c>
       <c r="H235">
-        <v>25.425000000000001</v>
+        <f t="shared" si="3"/>
+        <v>25.425000000000004</v>
       </c>
       <c r="I235">
         <v>79</v>
@@ -24486,7 +25143,8 @@
         <v>108</v>
       </c>
       <c r="H236">
-        <v>27.687870530000001</v>
+        <f t="shared" si="3"/>
+        <v>27.68787053356834</v>
       </c>
       <c r="I236">
         <v>80</v>
@@ -24581,7 +25239,8 @@
         <v>110.25</v>
       </c>
       <c r="H237">
-        <v>26.8861454</v>
+        <f t="shared" si="3"/>
+        <v>26.886145404663917</v>
       </c>
       <c r="I237">
         <v>49</v>
@@ -24676,7 +25335,8 @@
         <v>112.5</v>
       </c>
       <c r="H238">
-        <v>26.769779889999999</v>
+        <f t="shared" si="3"/>
+        <v>26.769779892920884</v>
       </c>
       <c r="I238">
         <v>48</v>
@@ -24771,6 +25431,7 @@
         <v>120.6</v>
       </c>
       <c r="H239">
+        <f t="shared" si="3"/>
         <v>30.15</v>
       </c>
       <c r="I239">
@@ -24866,7 +25527,8 @@
         <v>99</v>
       </c>
       <c r="H240">
-        <v>22.993177530000001</v>
+        <f t="shared" si="3"/>
+        <v>22.993177529394689</v>
       </c>
       <c r="I240">
         <v>24</v>
@@ -24961,7 +25623,8 @@
         <v>103.05</v>
       </c>
       <c r="H241">
-        <v>23.933807519999998</v>
+        <f t="shared" si="3"/>
+        <v>23.933807519233561</v>
       </c>
       <c r="I241">
         <v>67</v>
@@ -25056,7 +25719,8 @@
         <v>96.75</v>
       </c>
       <c r="H242">
-        <v>26.80055402</v>
+        <f t="shared" si="3"/>
+        <v>26.800554016620499</v>
       </c>
       <c r="I242">
         <v>24</v>
@@ -25151,7 +25815,8 @@
         <v>74.7</v>
       </c>
       <c r="H243">
-        <v>23.70958143</v>
+        <f t="shared" si="3"/>
+        <v>23.709581432255508</v>
       </c>
       <c r="I243">
         <v>21</v>
@@ -25227,8 +25892,27 @@
       <c r="A244" t="s">
         <v>303</v>
       </c>
+      <c r="B244">
+        <v>35</v>
+      </c>
       <c r="C244" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D244">
+        <v>201</v>
+      </c>
+      <c r="E244" t="s">
+        <v>54</v>
+      </c>
+      <c r="F244" t="s">
+        <v>52</v>
+      </c>
+      <c r="G244">
+        <v>95</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="3"/>
+        <v>23.514269448776023</v>
       </c>
       <c r="I244">
         <v>21</v>
@@ -25304,8 +25988,27 @@
       <c r="A245" t="s">
         <v>304</v>
       </c>
+      <c r="B245">
+        <v>24</v>
+      </c>
       <c r="C245" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D245">
+        <v>193</v>
+      </c>
+      <c r="E245" t="s">
+        <v>29</v>
+      </c>
+      <c r="F245" t="s">
+        <v>70</v>
+      </c>
+      <c r="G245">
+        <v>88</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="3"/>
+        <v>23.624795296518027</v>
       </c>
       <c r="I245">
         <v>79</v>
@@ -25400,7 +26103,8 @@
         <v>115.65</v>
       </c>
       <c r="H246">
-        <v>28.20301783</v>
+        <f t="shared" si="3"/>
+        <v>28.203017832647465</v>
       </c>
       <c r="I246">
         <v>34</v>
@@ -25495,7 +26199,8 @@
         <v>102.6</v>
       </c>
       <c r="H247">
-        <v>24.414039259999999</v>
+        <f t="shared" si="3"/>
+        <v>24.414039262343842</v>
       </c>
       <c r="I247">
         <v>63</v>
@@ -25590,7 +26295,8 @@
         <v>103.95</v>
       </c>
       <c r="H248">
-        <v>24.73527662</v>
+        <f t="shared" si="3"/>
+        <v>24.735276621058894</v>
       </c>
       <c r="I248">
         <v>75</v>
@@ -25685,7 +26391,8 @@
         <v>119.25</v>
       </c>
       <c r="H249">
-        <v>27.040816329999998</v>
+        <f t="shared" si="3"/>
+        <v>27.04081632653061</v>
       </c>
       <c r="I249">
         <v>80</v>
@@ -25780,7 +26487,8 @@
         <v>94.05</v>
       </c>
       <c r="H250">
-        <v>25.380333950000001</v>
+        <f t="shared" si="3"/>
+        <v>25.380333951762523</v>
       </c>
       <c r="I250">
         <v>30</v>
@@ -25875,7 +26583,8 @@
         <v>87.3</v>
       </c>
       <c r="H251">
-        <v>23.558778879999998</v>
+        <f t="shared" si="3"/>
+        <v>23.55877888345421</v>
       </c>
       <c r="I251">
         <v>59</v>
@@ -25970,7 +26679,8 @@
         <v>81</v>
       </c>
       <c r="H252">
-        <v>23.66691015</v>
+        <f t="shared" si="3"/>
+        <v>23.666910153396643</v>
       </c>
       <c r="I252">
         <v>36</v>
@@ -26065,7 +26775,8 @@
         <v>99</v>
       </c>
       <c r="H253">
-        <v>25.38054799</v>
+        <f t="shared" si="3"/>
+        <v>25.380547989104311</v>
       </c>
       <c r="I253">
         <v>14</v>
@@ -26160,7 +26871,8 @@
         <v>105.75</v>
       </c>
       <c r="H254">
-        <v>25.1635931</v>
+        <f t="shared" si="3"/>
+        <v>25.163593099345629</v>
       </c>
       <c r="I254">
         <v>70</v>
@@ -26255,6 +26967,7 @@
         <v>85.95</v>
       </c>
       <c r="H255">
+        <f t="shared" si="3"/>
         <v>24.448</v>
       </c>
       <c r="I255">
@@ -26350,7 +27063,8 @@
         <v>90</v>
       </c>
       <c r="H256">
-        <v>25.6</v>
+        <f t="shared" si="3"/>
+        <v>25.599999999999998</v>
       </c>
       <c r="I256">
         <v>42</v>
@@ -26445,7 +27159,8 @@
         <v>108</v>
       </c>
       <c r="H257">
-        <v>25.698988700000001</v>
+        <f t="shared" si="3"/>
+        <v>25.698988697204047</v>
       </c>
       <c r="I257">
         <v>17</v>
@@ -26521,8 +27236,27 @@
       <c r="A258" t="s">
         <v>317</v>
       </c>
+      <c r="B258">
+        <v>29</v>
+      </c>
       <c r="C258" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D258">
+        <v>206</v>
+      </c>
+      <c r="E258" t="s">
+        <v>16</v>
+      </c>
+      <c r="F258" t="s">
+        <v>140</v>
+      </c>
+      <c r="G258">
+        <v>102</v>
+      </c>
+      <c r="H258">
+        <f t="shared" si="3"/>
+        <v>24.036195682910737</v>
       </c>
       <c r="I258">
         <v>83</v>
@@ -26617,7 +27351,8 @@
         <v>101.25</v>
       </c>
       <c r="H259">
-        <v>26.627218930000002</v>
+        <f t="shared" ref="H259:H322" si="4">G259/D259/D259*10000</f>
+        <v>26.627218934911248</v>
       </c>
       <c r="I259">
         <v>70</v>
@@ -26712,7 +27447,8 @@
         <v>92.25</v>
       </c>
       <c r="H260">
-        <v>25.554016619999999</v>
+        <f t="shared" si="4"/>
+        <v>25.554016620498615</v>
       </c>
       <c r="I260">
         <v>40</v>
@@ -26807,7 +27543,8 @@
         <v>112.5</v>
       </c>
       <c r="H261">
-        <v>27.434842249999999</v>
+        <f t="shared" si="4"/>
+        <v>27.434842249657066</v>
       </c>
       <c r="I261">
         <v>1</v>
@@ -26902,7 +27639,8 @@
         <v>117</v>
       </c>
       <c r="H262">
-        <v>26.53061224</v>
+        <f t="shared" si="4"/>
+        <v>26.530612244897959</v>
       </c>
       <c r="I262">
         <v>41</v>
@@ -26997,7 +27735,8 @@
         <v>83.25</v>
       </c>
       <c r="H263">
-        <v>21.89349112</v>
+        <f t="shared" si="4"/>
+        <v>21.89349112426035</v>
       </c>
       <c r="I263">
         <v>59</v>
@@ -27073,8 +27812,27 @@
       <c r="A264" t="s">
         <v>323</v>
       </c>
+      <c r="B264">
+        <v>20</v>
+      </c>
       <c r="C264" t="s">
         <v>555</v>
+      </c>
+      <c r="D264">
+        <v>213</v>
+      </c>
+      <c r="E264" t="s">
+        <v>38</v>
+      </c>
+      <c r="F264" t="s">
+        <v>153</v>
+      </c>
+      <c r="G264">
+        <v>127</v>
+      </c>
+      <c r="H264">
+        <f t="shared" si="4"/>
+        <v>27.992682227953004</v>
       </c>
       <c r="I264">
         <v>62</v>
@@ -27169,7 +27927,8 @@
         <v>87.75</v>
       </c>
       <c r="H265">
-        <v>26.346406460000001</v>
+        <f t="shared" si="4"/>
+        <v>26.346406455244885</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -27264,7 +28023,8 @@
         <v>103.5</v>
       </c>
       <c r="H266">
-        <v>26.534209260000001</v>
+        <f t="shared" si="4"/>
+        <v>26.534209261336326</v>
       </c>
       <c r="I266">
         <v>64</v>
@@ -27359,7 +28119,8 @@
         <v>107.1</v>
       </c>
       <c r="H267">
-        <v>24.285714290000001</v>
+        <f t="shared" si="4"/>
+        <v>24.285714285714288</v>
       </c>
       <c r="I267">
         <v>64</v>
@@ -27454,7 +28215,8 @@
         <v>77.400000000000006</v>
       </c>
       <c r="H268">
-        <v>23.238881589999998</v>
+        <f t="shared" si="4"/>
+        <v>23.238881591292927</v>
       </c>
       <c r="I268">
         <v>62</v>
@@ -27549,7 +28311,8 @@
         <v>90</v>
       </c>
       <c r="H269">
-        <v>24.930747920000002</v>
+        <f t="shared" si="4"/>
+        <v>24.930747922437671</v>
       </c>
       <c r="I269">
         <v>28</v>
@@ -27644,7 +28407,8 @@
         <v>121.5</v>
       </c>
       <c r="H270">
-        <v>28.911362279999999</v>
+        <f t="shared" si="4"/>
+        <v>28.911362284354549</v>
       </c>
       <c r="I270">
         <v>68</v>
@@ -27739,6 +28503,7 @@
         <v>102.6</v>
       </c>
       <c r="H271">
+        <f t="shared" si="4"/>
         <v>25.65</v>
       </c>
       <c r="I271">
@@ -27834,7 +28599,8 @@
         <v>90.45</v>
       </c>
       <c r="H272">
-        <v>24.40883792</v>
+        <f t="shared" si="4"/>
+        <v>24.408837915331425</v>
       </c>
       <c r="I272">
         <v>75</v>
@@ -27929,7 +28695,8 @@
         <v>92.25</v>
       </c>
       <c r="H273">
-        <v>24.894585930000002</v>
+        <f t="shared" si="4"/>
+        <v>24.894585933546974</v>
       </c>
       <c r="I273">
         <v>82</v>
@@ -28024,7 +28791,8 @@
         <v>105.3</v>
       </c>
       <c r="H274">
-        <v>25.679012350000001</v>
+        <f t="shared" si="4"/>
+        <v>25.679012345679013</v>
       </c>
       <c r="I274">
         <v>11</v>
@@ -28119,7 +28887,8 @@
         <v>108</v>
       </c>
       <c r="H275">
-        <v>26.337448559999999</v>
+        <f t="shared" si="4"/>
+        <v>26.337448559670779</v>
       </c>
       <c r="I275">
         <v>27</v>
@@ -28214,7 +28983,8 @@
         <v>108</v>
       </c>
       <c r="H276">
-        <v>25.083466399999999</v>
+        <f t="shared" si="4"/>
+        <v>25.083466395703294</v>
       </c>
       <c r="I276">
         <v>47</v>
@@ -28309,7 +29079,8 @@
         <v>112.95</v>
       </c>
       <c r="H277">
-        <v>26.87685901</v>
+        <f t="shared" si="4"/>
+        <v>26.876859012492567</v>
       </c>
       <c r="I277">
         <v>75</v>
@@ -28404,7 +29175,8 @@
         <v>89.55</v>
       </c>
       <c r="H278">
-        <v>22.957859320000001</v>
+        <f t="shared" si="4"/>
+        <v>22.957859317417078</v>
       </c>
       <c r="I278">
         <v>39</v>
@@ -28499,7 +29271,8 @@
         <v>128.25</v>
       </c>
       <c r="H279">
-        <v>31.275720159999999</v>
+        <f t="shared" si="4"/>
+        <v>31.275720164609051</v>
       </c>
       <c r="I279">
         <v>79</v>
@@ -28594,6 +29367,7 @@
         <v>105.3</v>
       </c>
       <c r="H280">
+        <f t="shared" si="4"/>
         <v>26.324999999999999</v>
       </c>
       <c r="I280">
@@ -28689,7 +29463,8 @@
         <v>85.5</v>
       </c>
       <c r="H281">
-        <v>23.684210530000001</v>
+        <f t="shared" si="4"/>
+        <v>23.684210526315791</v>
       </c>
       <c r="I281">
         <v>66</v>
@@ -28784,7 +29559,8 @@
         <v>92.25</v>
       </c>
       <c r="H282">
-        <v>24.260355029999999</v>
+        <f t="shared" si="4"/>
+        <v>24.260355029585796</v>
       </c>
       <c r="I282">
         <v>62</v>
@@ -28879,7 +29655,8 @@
         <v>96.75</v>
       </c>
       <c r="H283">
-        <v>24.803717349999999</v>
+        <f t="shared" si="4"/>
+        <v>24.803717352988304</v>
       </c>
       <c r="I283">
         <v>77</v>
@@ -28974,7 +29751,8 @@
         <v>95.4</v>
       </c>
       <c r="H284">
-        <v>25.088757399999999</v>
+        <f t="shared" si="4"/>
+        <v>25.088757396449704</v>
       </c>
       <c r="I284">
         <v>35</v>
@@ -29069,7 +29847,8 @@
         <v>119.25</v>
       </c>
       <c r="H285">
-        <v>27.040816329999998</v>
+        <f t="shared" si="4"/>
+        <v>27.04081632653061</v>
       </c>
       <c r="I285">
         <v>81</v>
@@ -29164,6 +29943,7 @@
         <v>101.25</v>
       </c>
       <c r="H286">
+        <f t="shared" si="4"/>
         <v>25.3125</v>
       </c>
       <c r="I286">
@@ -29259,7 +30039,8 @@
         <v>105.75</v>
       </c>
       <c r="H287">
-        <v>25.78875171</v>
+        <f t="shared" si="4"/>
+        <v>25.788751714677641</v>
       </c>
       <c r="I287">
         <v>64</v>
@@ -29354,7 +30135,8 @@
         <v>103.5</v>
       </c>
       <c r="H288">
-        <v>25.240054870000002</v>
+        <f t="shared" si="4"/>
+        <v>25.240054869684496</v>
       </c>
       <c r="I288">
         <v>33</v>
@@ -29449,7 +30231,8 @@
         <v>95.4</v>
       </c>
       <c r="H289">
-        <v>24.457618969999999</v>
+        <f t="shared" si="4"/>
+        <v>24.457618971318698</v>
       </c>
       <c r="I289">
         <v>75</v>
@@ -29544,7 +30327,8 @@
         <v>88.2</v>
       </c>
       <c r="H290">
-        <v>26.48151623</v>
+        <f t="shared" si="4"/>
+        <v>26.48151623193845</v>
       </c>
       <c r="I290">
         <v>70</v>
@@ -29639,7 +30423,8 @@
         <v>112.5</v>
       </c>
       <c r="H291">
-        <v>26.769779889999999</v>
+        <f t="shared" si="4"/>
+        <v>26.769779892920884</v>
       </c>
       <c r="I291">
         <v>51</v>
@@ -29734,6 +30519,7 @@
         <v>102.6</v>
       </c>
       <c r="H292">
+        <f t="shared" si="4"/>
         <v>25.65</v>
       </c>
       <c r="I292">
@@ -29829,7 +30615,8 @@
         <v>86.85</v>
       </c>
       <c r="H293">
-        <v>24.704000000000001</v>
+        <f t="shared" si="4"/>
+        <v>24.703999999999997</v>
       </c>
       <c r="I293">
         <v>75</v>
@@ -29924,7 +30711,8 @@
         <v>117</v>
       </c>
       <c r="H294">
-        <v>27.17375526</v>
+        <f t="shared" si="4"/>
+        <v>27.173755262011898</v>
       </c>
       <c r="I294">
         <v>71</v>
@@ -30019,7 +30807,8 @@
         <v>103.5</v>
       </c>
       <c r="H295">
-        <v>27.93051105</v>
+        <f t="shared" si="4"/>
+        <v>27.930511047394162</v>
       </c>
       <c r="I295">
         <v>61</v>
@@ -30095,8 +30884,27 @@
       <c r="A296" t="s">
         <v>355</v>
       </c>
+      <c r="B296">
+        <v>26</v>
+      </c>
       <c r="C296" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D296">
+        <v>203</v>
+      </c>
+      <c r="E296" t="s">
+        <v>16</v>
+      </c>
+      <c r="F296" t="s">
+        <v>50</v>
+      </c>
+      <c r="G296">
+        <v>106</v>
+      </c>
+      <c r="H296">
+        <f t="shared" si="4"/>
+        <v>25.722536339149215</v>
       </c>
       <c r="I296">
         <v>62</v>
@@ -30191,7 +30999,8 @@
         <v>94.5</v>
       </c>
       <c r="H297">
-        <v>24.22688672</v>
+        <f t="shared" si="4"/>
+        <v>24.226886716872297</v>
       </c>
       <c r="I297">
         <v>26</v>
@@ -30286,7 +31095,8 @@
         <v>90</v>
       </c>
       <c r="H298">
-        <v>26.296566840000001</v>
+        <f t="shared" si="4"/>
+        <v>26.296566837107381</v>
       </c>
       <c r="I298">
         <v>45</v>
@@ -30381,7 +31191,8 @@
         <v>81</v>
       </c>
       <c r="H299">
-        <v>23.66691015</v>
+        <f t="shared" si="4"/>
+        <v>23.666910153396643</v>
       </c>
       <c r="I299">
         <v>12</v>
@@ -30457,8 +31268,27 @@
       <c r="A300" t="s">
         <v>359</v>
       </c>
+      <c r="B300">
+        <v>26</v>
+      </c>
       <c r="C300" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D300">
+        <v>211</v>
+      </c>
+      <c r="E300" t="s">
+        <v>38</v>
+      </c>
+      <c r="F300" t="s">
+        <v>205</v>
+      </c>
+      <c r="G300">
+        <v>106</v>
+      </c>
+      <c r="H300">
+        <f t="shared" si="4"/>
+        <v>23.808989016419215</v>
       </c>
       <c r="I300">
         <v>27</v>
@@ -30553,7 +31383,8 @@
         <v>117</v>
       </c>
       <c r="H301">
-        <v>28.53223594</v>
+        <f t="shared" si="4"/>
+        <v>28.532235939643346</v>
       </c>
       <c r="I301">
         <v>63</v>
@@ -30648,7 +31479,8 @@
         <v>87.3</v>
       </c>
       <c r="H302">
-        <v>24.832000000000001</v>
+        <f t="shared" si="4"/>
+        <v>24.831999999999997</v>
       </c>
       <c r="I302">
         <v>66</v>
@@ -30743,6 +31575,7 @@
         <v>112.5</v>
       </c>
       <c r="H303">
+        <f t="shared" si="4"/>
         <v>28.125</v>
       </c>
       <c r="I303">
@@ -30838,6 +31671,7 @@
         <v>85.5</v>
       </c>
       <c r="H304">
+        <f t="shared" si="4"/>
         <v>24.32</v>
       </c>
       <c r="I304">
@@ -30933,7 +31767,8 @@
         <v>85.05</v>
       </c>
       <c r="H305">
-        <v>22.951593859999999</v>
+        <f t="shared" si="4"/>
+        <v>22.951593860684767</v>
       </c>
       <c r="I305">
         <v>29</v>
@@ -31028,7 +31863,8 @@
         <v>99</v>
       </c>
       <c r="H306">
-        <v>24.142661180000001</v>
+        <f t="shared" si="4"/>
+        <v>24.142661179698212</v>
       </c>
       <c r="I306">
         <v>53</v>
@@ -31123,7 +31959,8 @@
         <v>78.75</v>
       </c>
       <c r="H307">
-        <v>23.644210919999999</v>
+        <f t="shared" si="4"/>
+        <v>23.644210921373617</v>
       </c>
       <c r="I307">
         <v>80</v>
@@ -31218,6 +32055,7 @@
         <v>103.5</v>
       </c>
       <c r="H308">
+        <f t="shared" si="4"/>
         <v>25.875</v>
       </c>
       <c r="I308">
@@ -31313,7 +32151,8 @@
         <v>108.45</v>
       </c>
       <c r="H309">
-        <v>24.591836730000001</v>
+        <f t="shared" si="4"/>
+        <v>24.591836734693882</v>
       </c>
       <c r="I309">
         <v>6</v>
@@ -31408,7 +32247,8 @@
         <v>108</v>
       </c>
       <c r="H310">
-        <v>26.337448559999999</v>
+        <f t="shared" si="4"/>
+        <v>26.337448559670779</v>
       </c>
       <c r="I310">
         <v>81</v>
@@ -31503,7 +32343,8 @@
         <v>101.25</v>
       </c>
       <c r="H311">
-        <v>24.691358019999999</v>
+        <f t="shared" si="4"/>
+        <v>24.691358024691358</v>
       </c>
       <c r="I311">
         <v>63</v>
@@ -31598,7 +32439,8 @@
         <v>78.75</v>
       </c>
       <c r="H312">
-        <v>23.009495980000001</v>
+        <f t="shared" si="4"/>
+        <v>23.009495982468955</v>
       </c>
       <c r="I312">
         <v>47</v>
@@ -31693,7 +32535,8 @@
         <v>99</v>
       </c>
       <c r="H313">
-        <v>24.142661180000001</v>
+        <f t="shared" si="4"/>
+        <v>24.142661179698212</v>
       </c>
       <c r="I313">
         <v>72</v>
@@ -31788,7 +32631,8 @@
         <v>90</v>
       </c>
       <c r="H314">
-        <v>24.287400909999999</v>
+        <f t="shared" si="4"/>
+        <v>24.287400910777535</v>
       </c>
       <c r="I314">
         <v>17</v>
@@ -31883,7 +32727,8 @@
         <v>92.25</v>
       </c>
       <c r="H315">
-        <v>24.260355029999999</v>
+        <f t="shared" si="4"/>
+        <v>24.260355029585796</v>
       </c>
       <c r="I315">
         <v>70</v>
@@ -31978,7 +32823,8 @@
         <v>114.75</v>
       </c>
       <c r="H316">
-        <v>25.41176471</v>
+        <f t="shared" si="4"/>
+        <v>25.411764705882355</v>
       </c>
       <c r="I316">
         <v>81</v>
@@ -32073,7 +32919,8 @@
         <v>108</v>
       </c>
       <c r="H317">
-        <v>25.083466399999999</v>
+        <f t="shared" si="4"/>
+        <v>25.083466395703294</v>
       </c>
       <c r="I317">
         <v>82</v>
@@ -32168,7 +33015,8 @@
         <v>94.5</v>
       </c>
       <c r="H318">
-        <v>25.501770960000002</v>
+        <f t="shared" si="4"/>
+        <v>25.50177095631641</v>
       </c>
       <c r="I318">
         <v>62</v>
@@ -32263,7 +33111,8 @@
         <v>105.75</v>
       </c>
       <c r="H319">
-        <v>25.78875171</v>
+        <f t="shared" si="4"/>
+        <v>25.788751714677641</v>
       </c>
       <c r="I319">
         <v>81</v>
@@ -32358,7 +33207,8 @@
         <v>99</v>
       </c>
       <c r="H320">
-        <v>27.42382271</v>
+        <f t="shared" si="4"/>
+        <v>27.423822714681439</v>
       </c>
       <c r="I320">
         <v>67</v>
@@ -32434,8 +33284,27 @@
       <c r="A321" t="s">
         <v>380</v>
       </c>
+      <c r="B321">
+        <v>27</v>
+      </c>
       <c r="C321" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D321">
+        <v>193</v>
+      </c>
+      <c r="E321" t="s">
+        <v>42</v>
+      </c>
+      <c r="F321" t="s">
+        <v>30</v>
+      </c>
+      <c r="G321">
+        <v>92</v>
+      </c>
+      <c r="H321">
+        <f t="shared" si="4"/>
+        <v>24.69864962817794</v>
       </c>
       <c r="I321">
         <v>48</v>
@@ -32530,7 +33399,8 @@
         <v>85.5</v>
       </c>
       <c r="H322">
-        <v>24.981738499999999</v>
+        <f t="shared" si="4"/>
+        <v>24.98173849525201</v>
       </c>
       <c r="I322">
         <v>80</v>
@@ -32625,6 +33495,7 @@
         <v>85.5</v>
       </c>
       <c r="H323">
+        <f t="shared" ref="H323:H386" si="5">G323/D323/D323*10000</f>
         <v>24.32</v>
       </c>
       <c r="I323">
@@ -32720,7 +33591,8 @@
         <v>110.25</v>
       </c>
       <c r="H324">
-        <v>26.234384299999999</v>
+        <f t="shared" si="5"/>
+        <v>26.234384295062465</v>
       </c>
       <c r="I324">
         <v>82</v>
@@ -32815,7 +33687,8 @@
         <v>114.75</v>
       </c>
       <c r="H325">
-        <v>27.30517549</v>
+        <f t="shared" si="5"/>
+        <v>27.305175490779302</v>
       </c>
       <c r="I325">
         <v>76</v>
@@ -32891,8 +33764,27 @@
       <c r="A326" t="s">
         <v>385</v>
       </c>
+      <c r="B326">
+        <v>28</v>
+      </c>
       <c r="C326" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D326">
+        <v>201</v>
+      </c>
+      <c r="E326" t="s">
+        <v>54</v>
+      </c>
+      <c r="F326" t="s">
+        <v>70</v>
+      </c>
+      <c r="G326">
+        <v>104</v>
+      </c>
+      <c r="H326">
+        <f t="shared" si="5"/>
+        <v>25.741937080765325</v>
       </c>
       <c r="I326">
         <v>32</v>
@@ -32987,7 +33879,8 @@
         <v>106.65</v>
       </c>
       <c r="H327">
-        <v>26.008230449999999</v>
+        <f t="shared" si="5"/>
+        <v>26.008230452674901</v>
       </c>
       <c r="I327">
         <v>78</v>
@@ -33082,7 +33975,8 @@
         <v>110.25</v>
       </c>
       <c r="H328">
-        <v>25.606038609999999</v>
+        <f t="shared" si="5"/>
+        <v>25.606038612280443</v>
       </c>
       <c r="I328">
         <v>82</v>
@@ -33177,7 +34071,8 @@
         <v>101.7</v>
       </c>
       <c r="H329">
-        <v>26.072744749999998</v>
+        <f t="shared" si="5"/>
+        <v>26.072744752443519</v>
       </c>
       <c r="I329">
         <v>76</v>
@@ -33272,7 +34167,8 @@
         <v>105.75</v>
       </c>
       <c r="H330">
-        <v>25.1635931</v>
+        <f t="shared" si="5"/>
+        <v>25.163593099345629</v>
       </c>
       <c r="I330">
         <v>72</v>
@@ -33367,7 +34263,8 @@
         <v>89.1</v>
       </c>
       <c r="H331">
-        <v>24.681440439999999</v>
+        <f t="shared" si="5"/>
+        <v>24.681440443213294</v>
       </c>
       <c r="I331">
         <v>67</v>
@@ -33462,7 +34359,8 @@
         <v>96.75</v>
       </c>
       <c r="H332">
-        <v>23.593964329999999</v>
+        <f t="shared" si="5"/>
+        <v>23.593964334705074</v>
       </c>
       <c r="I332">
         <v>45</v>
@@ -33557,7 +34455,8 @@
         <v>110.25</v>
       </c>
       <c r="H333">
-        <v>24.415224909999999</v>
+        <f t="shared" si="5"/>
+        <v>24.415224913494807</v>
       </c>
       <c r="I333">
         <v>55</v>
@@ -33652,7 +34551,8 @@
         <v>105.75</v>
       </c>
       <c r="H334">
-        <v>25.78875171</v>
+        <f t="shared" si="5"/>
+        <v>25.788751714677641</v>
       </c>
       <c r="I334">
         <v>24</v>
@@ -33747,7 +34647,8 @@
         <v>85.5</v>
       </c>
       <c r="H335">
-        <v>22.4852071</v>
+        <f t="shared" si="5"/>
+        <v>22.485207100591715</v>
       </c>
       <c r="I335">
         <v>66</v>
@@ -33842,7 +34743,8 @@
         <v>104.4</v>
       </c>
       <c r="H336">
-        <v>26.764941520000001</v>
+        <f t="shared" si="5"/>
+        <v>26.764941515782727</v>
       </c>
       <c r="I336">
         <v>55</v>
@@ -33937,7 +34839,8 @@
         <v>78.75</v>
       </c>
       <c r="H337">
-        <v>23.644210919999999</v>
+        <f t="shared" si="5"/>
+        <v>23.644210921373617</v>
       </c>
       <c r="I337">
         <v>70</v>
@@ -34032,7 +34935,8 @@
         <v>103.5</v>
       </c>
       <c r="H338">
-        <v>25.240054870000002</v>
+        <f t="shared" si="5"/>
+        <v>25.240054869684496</v>
       </c>
       <c r="I338">
         <v>63</v>
@@ -34127,6 +35031,7 @@
         <v>98.1</v>
       </c>
       <c r="H339">
+        <f t="shared" si="5"/>
         <v>24.524999999999999</v>
       </c>
       <c r="I339">
@@ -34222,7 +35127,8 @@
         <v>108</v>
       </c>
       <c r="H340">
-        <v>25.083466399999999</v>
+        <f t="shared" si="5"/>
+        <v>25.083466395703294</v>
       </c>
       <c r="I340">
         <v>40</v>
@@ -34317,6 +35223,7 @@
         <v>106.65</v>
       </c>
       <c r="H341">
+        <f t="shared" si="5"/>
         <v>26.662500000000001</v>
       </c>
       <c r="I341">
@@ -34412,7 +35319,8 @@
         <v>112.05</v>
       </c>
       <c r="H342">
-        <v>26.02409639</v>
+        <f t="shared" si="5"/>
+        <v>26.024096385542169</v>
       </c>
       <c r="I342">
         <v>73</v>
@@ -34488,8 +35396,27 @@
       <c r="A343" t="s">
         <v>402</v>
       </c>
+      <c r="B343">
+        <v>27</v>
+      </c>
       <c r="C343" t="s">
         <v>555</v>
+      </c>
+      <c r="D343">
+        <v>213</v>
+      </c>
+      <c r="E343" t="s">
+        <v>38</v>
+      </c>
+      <c r="F343" t="s">
+        <v>2</v>
+      </c>
+      <c r="G343">
+        <v>113</v>
+      </c>
+      <c r="H343">
+        <f t="shared" si="5"/>
+        <v>24.9068747382574</v>
       </c>
       <c r="I343">
         <v>5</v>
@@ -34565,8 +35492,27 @@
       <c r="A344" t="s">
         <v>403</v>
       </c>
+      <c r="B344">
+        <v>28</v>
+      </c>
       <c r="C344" t="s">
         <v>555</v>
+      </c>
+      <c r="D344">
+        <v>206</v>
+      </c>
+      <c r="E344" t="s">
+        <v>16</v>
+      </c>
+      <c r="F344" t="s">
+        <v>556</v>
+      </c>
+      <c r="G344">
+        <v>109</v>
+      </c>
+      <c r="H344">
+        <f t="shared" si="5"/>
+        <v>25.685738523894805</v>
       </c>
       <c r="I344">
         <v>40</v>
@@ -34661,7 +35607,8 @@
         <v>114.75</v>
       </c>
       <c r="H345">
-        <v>27.30517549</v>
+        <f t="shared" si="5"/>
+        <v>27.305175490779302</v>
       </c>
       <c r="I345">
         <v>32</v>
@@ -34756,7 +35703,8 @@
         <v>89.1</v>
       </c>
       <c r="H346">
-        <v>26.751735790000001</v>
+        <f t="shared" si="5"/>
+        <v>26.751735785325572</v>
       </c>
       <c r="I346">
         <v>68</v>
@@ -34851,6 +35799,7 @@
         <v>83.25</v>
       </c>
       <c r="H347">
+        <f t="shared" si="5"/>
         <v>23.68</v>
       </c>
       <c r="I347">
@@ -34927,8 +35876,27 @@
       <c r="A348" t="s">
         <v>407</v>
       </c>
+      <c r="B348">
+        <v>30</v>
+      </c>
       <c r="C348" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D348">
+        <v>175</v>
+      </c>
+      <c r="E348" t="s">
+        <v>29</v>
+      </c>
+      <c r="F348" t="s">
+        <v>98</v>
+      </c>
+      <c r="G348">
+        <v>81</v>
+      </c>
+      <c r="H348">
+        <f t="shared" si="5"/>
+        <v>26.448979591836732</v>
       </c>
       <c r="I348">
         <v>42</v>
@@ -35004,8 +35972,27 @@
       <c r="A349" t="s">
         <v>408</v>
       </c>
+      <c r="B349">
+        <v>23</v>
+      </c>
       <c r="C349" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D349">
+        <v>193</v>
+      </c>
+      <c r="E349" t="s">
+        <v>29</v>
+      </c>
+      <c r="F349" t="s">
+        <v>52</v>
+      </c>
+      <c r="G349">
+        <v>86</v>
+      </c>
+      <c r="H349">
+        <f t="shared" si="5"/>
+        <v>23.087868130688069</v>
       </c>
       <c r="I349">
         <v>21</v>
@@ -35100,7 +36087,8 @@
         <v>99.45</v>
       </c>
       <c r="H350">
-        <v>23.664485429999999</v>
+        <f t="shared" si="5"/>
+        <v>23.664485425342058</v>
       </c>
       <c r="I350">
         <v>23</v>
@@ -35195,7 +36183,8 @@
         <v>112.5</v>
       </c>
       <c r="H351">
-        <v>26.12861083</v>
+        <f t="shared" si="5"/>
+        <v>26.128610828857596</v>
       </c>
       <c r="I351">
         <v>67</v>
@@ -35290,7 +36279,8 @@
         <v>102.6</v>
       </c>
       <c r="H352">
-        <v>23.829293079999999</v>
+        <f t="shared" si="5"/>
+        <v>23.82929307591813</v>
       </c>
       <c r="I352">
         <v>75</v>
@@ -35385,7 +36375,8 @@
         <v>95.85</v>
       </c>
       <c r="H353">
-        <v>25.20710059</v>
+        <f t="shared" si="5"/>
+        <v>25.207100591715975</v>
       </c>
       <c r="I353">
         <v>58</v>
@@ -35480,7 +36471,8 @@
         <v>114.75</v>
       </c>
       <c r="H354">
-        <v>27.30517549</v>
+        <f t="shared" si="5"/>
+        <v>27.305175490779302</v>
       </c>
       <c r="I354">
         <v>66</v>
@@ -35575,7 +36567,8 @@
         <v>90.9</v>
       </c>
       <c r="H355">
-        <v>25.856000000000002</v>
+        <f t="shared" si="5"/>
+        <v>25.855999999999998</v>
       </c>
       <c r="I355">
         <v>28</v>
@@ -35651,8 +36644,27 @@
       <c r="A356" t="s">
         <v>415</v>
       </c>
+      <c r="B356">
+        <v>29</v>
+      </c>
       <c r="C356" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D356">
+        <v>210</v>
+      </c>
+      <c r="E356" t="s">
+        <v>42</v>
+      </c>
+      <c r="F356" t="s">
+        <v>119</v>
+      </c>
+      <c r="G356">
+        <v>95</v>
+      </c>
+      <c r="H356">
+        <f t="shared" si="5"/>
+        <v>21.541950113378682</v>
       </c>
       <c r="I356">
         <v>42</v>
@@ -35747,7 +36759,8 @@
         <v>90</v>
       </c>
       <c r="H357">
-        <v>22.5</v>
+        <f t="shared" si="5"/>
+        <v>22.500000000000004</v>
       </c>
       <c r="I357">
         <v>71</v>
@@ -35842,7 +36855,8 @@
         <v>92.25</v>
       </c>
       <c r="H358">
-        <v>24.260355029999999</v>
+        <f t="shared" si="5"/>
+        <v>24.260355029585796</v>
       </c>
       <c r="I358">
         <v>73</v>
@@ -35937,7 +36951,8 @@
         <v>99</v>
       </c>
       <c r="H359">
-        <v>23.557406310000001</v>
+        <f t="shared" si="5"/>
+        <v>23.557406305770375</v>
       </c>
       <c r="I359">
         <v>82</v>
@@ -36013,8 +37028,27 @@
       <c r="A360" t="s">
         <v>419</v>
       </c>
+      <c r="B360">
+        <v>29</v>
+      </c>
       <c r="C360" t="s">
         <v>555</v>
+      </c>
+      <c r="D360">
+        <v>211</v>
+      </c>
+      <c r="E360" t="s">
+        <v>38</v>
+      </c>
+      <c r="F360" t="s">
+        <v>2</v>
+      </c>
+      <c r="G360">
+        <v>139</v>
+      </c>
+      <c r="H360">
+        <f t="shared" si="5"/>
+        <v>31.221221446059165</v>
       </c>
       <c r="I360">
         <v>31</v>
@@ -36109,7 +37143,8 @@
         <v>117</v>
       </c>
       <c r="H361">
-        <v>26.53061224</v>
+        <f t="shared" si="5"/>
+        <v>26.530612244897959</v>
       </c>
       <c r="I361">
         <v>74</v>
@@ -36204,7 +37239,8 @@
         <v>108</v>
       </c>
       <c r="H362">
-        <v>25.698988700000001</v>
+        <f t="shared" si="5"/>
+        <v>25.698988697204047</v>
       </c>
       <c r="I362">
         <v>25</v>
@@ -36299,7 +37335,8 @@
         <v>78.75</v>
       </c>
       <c r="H363">
-        <v>23.009495980000001</v>
+        <f t="shared" si="5"/>
+        <v>23.009495982468955</v>
       </c>
       <c r="I363">
         <v>75</v>
@@ -36394,7 +37431,8 @@
         <v>94.5</v>
       </c>
       <c r="H364">
-        <v>25.501770960000002</v>
+        <f t="shared" si="5"/>
+        <v>25.50177095631641</v>
       </c>
       <c r="I364">
         <v>71</v>
@@ -36489,7 +37527,8 @@
         <v>112.95</v>
       </c>
       <c r="H365">
-        <v>25.013148789999999</v>
+        <f t="shared" si="5"/>
+        <v>25.013148788927339</v>
       </c>
       <c r="I365">
         <v>16</v>
@@ -36584,7 +37623,8 @@
         <v>114.75</v>
       </c>
       <c r="H366">
-        <v>26.020408159999999</v>
+        <f t="shared" si="5"/>
+        <v>26.020408163265301</v>
       </c>
       <c r="I366">
         <v>76</v>
@@ -36679,7 +37719,8 @@
         <v>101.25</v>
       </c>
       <c r="H367">
-        <v>24.691358019999999</v>
+        <f t="shared" si="5"/>
+        <v>24.691358024691358</v>
       </c>
       <c r="I367">
         <v>67</v>
@@ -36774,6 +37815,7 @@
         <v>89.1</v>
       </c>
       <c r="H368">
+        <f t="shared" si="5"/>
         <v>22.274999999999999</v>
       </c>
       <c r="I368">
@@ -36869,6 +37911,7 @@
         <v>83.25</v>
       </c>
       <c r="H369">
+        <f t="shared" si="5"/>
         <v>23.68</v>
       </c>
       <c r="I369">
@@ -36964,7 +38007,8 @@
         <v>83.25</v>
       </c>
       <c r="H370">
-        <v>24.995308690000002</v>
+        <f t="shared" si="5"/>
+        <v>24.995308688309255</v>
       </c>
       <c r="I370">
         <v>56</v>
@@ -37059,7 +38103,8 @@
         <v>94.05</v>
       </c>
       <c r="H371">
-        <v>25.380333950000001</v>
+        <f t="shared" si="5"/>
+        <v>25.380333951762523</v>
       </c>
       <c r="I371">
         <v>4</v>
@@ -37135,8 +38180,27 @@
       <c r="A372" t="s">
         <v>431</v>
       </c>
+      <c r="B372">
+        <v>25</v>
+      </c>
       <c r="C372" t="s">
         <v>555</v>
+      </c>
+      <c r="D372">
+        <v>206</v>
+      </c>
+      <c r="E372" t="s">
+        <v>16</v>
+      </c>
+      <c r="F372" t="s">
+        <v>61</v>
+      </c>
+      <c r="G372">
+        <v>104</v>
+      </c>
+      <c r="H372">
+        <f t="shared" si="5"/>
+        <v>24.507493637477616</v>
       </c>
       <c r="I372">
         <v>81</v>
@@ -37231,7 +38295,8 @@
         <v>83.25</v>
       </c>
       <c r="H373">
-        <v>25.694444440000002</v>
+        <f t="shared" si="5"/>
+        <v>25.694444444444446</v>
       </c>
       <c r="I373">
         <v>51</v>
@@ -37326,7 +38391,8 @@
         <v>112.5</v>
       </c>
       <c r="H374">
-        <v>25.510204080000001</v>
+        <f t="shared" si="5"/>
+        <v>25.510204081632651</v>
       </c>
       <c r="I374">
         <v>78</v>
@@ -37421,7 +38487,8 @@
         <v>99</v>
       </c>
       <c r="H375">
-        <v>24.142661180000001</v>
+        <f t="shared" si="5"/>
+        <v>24.142661179698212</v>
       </c>
       <c r="I375">
         <v>6</v>
@@ -37516,6 +38583,7 @@
         <v>110.7</v>
       </c>
       <c r="H376">
+        <f t="shared" si="5"/>
         <v>27.675000000000001</v>
       </c>
       <c r="I376">
@@ -37611,7 +38679,8 @@
         <v>105.75</v>
       </c>
       <c r="H377">
-        <v>27.111039900000002</v>
+        <f t="shared" si="5"/>
+        <v>27.111039897452333</v>
       </c>
       <c r="I377">
         <v>73</v>
@@ -37706,7 +38775,8 @@
         <v>117</v>
       </c>
       <c r="H378">
-        <v>27.17375526</v>
+        <f t="shared" si="5"/>
+        <v>27.173755262011898</v>
       </c>
       <c r="I378">
         <v>63</v>
@@ -37801,7 +38871,8 @@
         <v>105.75</v>
       </c>
       <c r="H379">
-        <v>24.560894179999998</v>
+        <f t="shared" si="5"/>
+        <v>24.560894179126141</v>
       </c>
       <c r="I379">
         <v>43</v>
@@ -37896,7 +38967,8 @@
         <v>78.75</v>
       </c>
       <c r="H380">
-        <v>24.995040670000002</v>
+        <f t="shared" si="5"/>
+        <v>24.995040666534418</v>
       </c>
       <c r="I380">
         <v>50</v>
@@ -37991,7 +39063,8 @@
         <v>103.5</v>
       </c>
       <c r="H381">
-        <v>27.218934910000002</v>
+        <f t="shared" si="5"/>
+        <v>27.218934911242602</v>
       </c>
       <c r="I381">
         <v>45</v>
@@ -38067,8 +39140,27 @@
       <c r="A382" t="s">
         <v>441</v>
       </c>
+      <c r="B382">
+        <v>29</v>
+      </c>
       <c r="C382" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D382">
+        <v>198</v>
+      </c>
+      <c r="E382" t="s">
+        <v>54</v>
+      </c>
+      <c r="F382" t="s">
+        <v>30</v>
+      </c>
+      <c r="G382">
+        <v>111</v>
+      </c>
+      <c r="H382">
+        <f t="shared" si="5"/>
+        <v>28.313437404346494</v>
       </c>
       <c r="I382">
         <v>78</v>
@@ -38163,7 +39255,8 @@
         <v>108</v>
       </c>
       <c r="H383">
-        <v>27.687870530000001</v>
+        <f t="shared" si="5"/>
+        <v>27.68787053356834</v>
       </c>
       <c r="I383">
         <v>68</v>
@@ -38258,7 +39351,8 @@
         <v>94.5</v>
       </c>
       <c r="H384">
-        <v>23.045267490000001</v>
+        <f t="shared" si="5"/>
+        <v>23.045267489711936</v>
       </c>
       <c r="I384">
         <v>10</v>
@@ -38353,7 +39447,8 @@
         <v>99</v>
       </c>
       <c r="H385">
-        <v>25.38054799</v>
+        <f t="shared" si="5"/>
+        <v>25.380547989104311</v>
       </c>
       <c r="I385">
         <v>75</v>
@@ -38448,7 +39543,8 @@
         <v>83.7</v>
       </c>
       <c r="H386">
-        <v>25.130418469999999</v>
+        <f t="shared" si="5"/>
+        <v>25.130418465002816</v>
       </c>
       <c r="I386">
         <v>68</v>
@@ -38543,6 +39639,7 @@
         <v>85.5</v>
       </c>
       <c r="H387">
+        <f t="shared" ref="H387:H450" si="6">G387/D387/D387*10000</f>
         <v>24.32</v>
       </c>
       <c r="I387">
@@ -38638,7 +39735,8 @@
         <v>95.85</v>
       </c>
       <c r="H388">
-        <v>26.551246540000001</v>
+        <f t="shared" si="6"/>
+        <v>26.551246537396118</v>
       </c>
       <c r="I388">
         <v>50</v>
@@ -38733,7 +39831,8 @@
         <v>96.75</v>
       </c>
       <c r="H389">
-        <v>24.803717349999999</v>
+        <f t="shared" si="6"/>
+        <v>24.803717352988304</v>
       </c>
       <c r="I389">
         <v>75</v>
@@ -38828,6 +39927,7 @@
         <v>85.5</v>
       </c>
       <c r="H390">
+        <f t="shared" si="6"/>
         <v>24.32</v>
       </c>
       <c r="I390">
@@ -38923,7 +40023,8 @@
         <v>92.25</v>
       </c>
       <c r="H391">
-        <v>27.697504219999999</v>
+        <f t="shared" si="6"/>
+        <v>27.69750422218052</v>
       </c>
       <c r="I391">
         <v>29</v>
@@ -39018,7 +40119,8 @@
         <v>92.25</v>
       </c>
       <c r="H392">
-        <v>23.650056079999999</v>
+        <f t="shared" si="6"/>
+        <v>23.650056080756286</v>
       </c>
       <c r="I392">
         <v>36</v>
@@ -39113,6 +40215,7 @@
         <v>110.25</v>
       </c>
       <c r="H393">
+        <f t="shared" si="6"/>
         <v>27.5625</v>
       </c>
       <c r="I393">
@@ -39208,7 +40311,8 @@
         <v>93.6</v>
       </c>
       <c r="H394">
-        <v>26.623999999999999</v>
+        <f t="shared" si="6"/>
+        <v>26.623999999999995</v>
       </c>
       <c r="I394">
         <v>77</v>
@@ -39284,8 +40388,27 @@
       <c r="A395" t="s">
         <v>454</v>
       </c>
+      <c r="B395">
+        <v>28</v>
+      </c>
       <c r="C395" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D395">
+        <v>198</v>
+      </c>
+      <c r="E395" t="s">
+        <v>54</v>
+      </c>
+      <c r="F395" t="s">
+        <v>85</v>
+      </c>
+      <c r="G395">
+        <v>92</v>
+      </c>
+      <c r="H395">
+        <f t="shared" si="6"/>
+        <v>23.466993163962862</v>
       </c>
       <c r="I395">
         <v>20</v>
@@ -39380,7 +40503,8 @@
         <v>104.85</v>
       </c>
       <c r="H396">
-        <v>26.880307640000002</v>
+        <f t="shared" si="6"/>
+        <v>26.880307643005931</v>
       </c>
       <c r="I396">
         <v>74</v>
@@ -39456,8 +40580,27 @@
       <c r="A397" t="s">
         <v>456</v>
       </c>
+      <c r="B397">
+        <v>22</v>
+      </c>
       <c r="C397" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D397">
+        <v>201</v>
+      </c>
+      <c r="E397" t="s">
+        <v>42</v>
+      </c>
+      <c r="F397" t="s">
+        <v>50</v>
+      </c>
+      <c r="G397">
+        <v>88</v>
+      </c>
+      <c r="H397">
+        <f t="shared" si="6"/>
+        <v>21.781639068339892</v>
       </c>
       <c r="I397">
         <v>17</v>
@@ -39552,7 +40695,8 @@
         <v>87.75</v>
       </c>
       <c r="H398">
-        <v>22.496394810000002</v>
+        <f t="shared" si="6"/>
+        <v>22.496394808524272</v>
       </c>
       <c r="I398">
         <v>22</v>
@@ -39647,6 +40791,7 @@
         <v>96.75</v>
       </c>
       <c r="H399">
+        <f t="shared" si="6"/>
         <v>24.1875</v>
       </c>
       <c r="I399">
@@ -39742,7 +40887,8 @@
         <v>96.75</v>
       </c>
       <c r="H400">
-        <v>23.593964329999999</v>
+        <f t="shared" si="6"/>
+        <v>23.593964334705074</v>
       </c>
       <c r="I400">
         <v>70</v>
@@ -39818,8 +40964,27 @@
       <c r="A401" t="s">
         <v>460</v>
       </c>
+      <c r="B401">
+        <v>25</v>
+      </c>
       <c r="C401" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D401">
+        <v>213</v>
+      </c>
+      <c r="E401" t="s">
+        <v>38</v>
+      </c>
+      <c r="F401" t="s">
+        <v>119</v>
+      </c>
+      <c r="G401">
+        <v>122</v>
+      </c>
+      <c r="H401">
+        <f t="shared" si="6"/>
+        <v>26.890608124490292</v>
       </c>
       <c r="I401">
         <v>67</v>
@@ -39914,7 +41079,8 @@
         <v>114.75</v>
       </c>
       <c r="H402">
-        <v>26.020408159999999</v>
+        <f t="shared" si="6"/>
+        <v>26.020408163265301</v>
       </c>
       <c r="I402">
         <v>59</v>
@@ -40009,6 +41175,7 @@
         <v>92.7</v>
       </c>
       <c r="H403">
+        <f t="shared" si="6"/>
         <v>23.175000000000001</v>
       </c>
       <c r="I403">
@@ -40104,7 +41271,8 @@
         <v>94.5</v>
       </c>
       <c r="H404">
-        <v>25.501770960000002</v>
+        <f t="shared" si="6"/>
+        <v>25.50177095631641</v>
       </c>
       <c r="I404">
         <v>71</v>
@@ -40199,7 +41367,8 @@
         <v>85.5</v>
       </c>
       <c r="H405">
-        <v>24.981738499999999</v>
+        <f t="shared" si="6"/>
+        <v>24.98173849525201</v>
       </c>
       <c r="I405">
         <v>43</v>
@@ -40275,8 +41444,27 @@
       <c r="A406" t="s">
         <v>465</v>
       </c>
+      <c r="B406">
+        <v>32</v>
+      </c>
       <c r="C406" t="s">
         <v>555</v>
+      </c>
+      <c r="D406">
+        <v>208</v>
+      </c>
+      <c r="E406" t="s">
+        <v>38</v>
+      </c>
+      <c r="F406" t="s">
+        <v>2</v>
+      </c>
+      <c r="G406">
+        <v>112</v>
+      </c>
+      <c r="H406">
+        <f t="shared" si="6"/>
+        <v>25.88757396449704</v>
       </c>
       <c r="I406">
         <v>2</v>
@@ -40371,7 +41559,8 @@
         <v>121.5</v>
       </c>
       <c r="H407">
-        <v>26.284478100000001</v>
+        <f t="shared" si="6"/>
+        <v>26.284478096268256</v>
       </c>
       <c r="I407">
         <v>76</v>
@@ -40466,6 +41655,7 @@
         <v>103.5</v>
       </c>
       <c r="H408">
+        <f t="shared" si="6"/>
         <v>25.875</v>
       </c>
       <c r="I408">
@@ -40561,7 +41751,8 @@
         <v>110.25</v>
       </c>
       <c r="H409">
-        <v>24.415224909999999</v>
+        <f t="shared" si="6"/>
+        <v>24.415224913494807</v>
       </c>
       <c r="I409">
         <v>82</v>
@@ -40656,7 +41847,8 @@
         <v>74.25</v>
       </c>
       <c r="H410">
-        <v>22.916666670000001</v>
+        <f t="shared" si="6"/>
+        <v>22.916666666666668</v>
       </c>
       <c r="I410">
         <v>12</v>
@@ -40732,8 +41924,27 @@
       <c r="A411" t="s">
         <v>470</v>
       </c>
+      <c r="B411">
+        <v>26</v>
+      </c>
       <c r="C411" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D411">
+        <v>190</v>
+      </c>
+      <c r="E411" t="s">
+        <v>29</v>
+      </c>
+      <c r="F411" t="s">
+        <v>72</v>
+      </c>
+      <c r="G411">
+        <v>90</v>
+      </c>
+      <c r="H411">
+        <f t="shared" si="6"/>
+        <v>24.930747922437671</v>
       </c>
       <c r="I411">
         <v>67</v>
@@ -40828,7 +42039,8 @@
         <v>108</v>
       </c>
       <c r="H412">
-        <v>25.698988700000001</v>
+        <f t="shared" si="6"/>
+        <v>25.698988697204047</v>
       </c>
       <c r="I412">
         <v>61</v>
@@ -40923,7 +42135,8 @@
         <v>108</v>
       </c>
       <c r="H413">
-        <v>24.489795919999999</v>
+        <f t="shared" si="6"/>
+        <v>24.489795918367346</v>
       </c>
       <c r="I413">
         <v>46</v>
@@ -41018,7 +42231,8 @@
         <v>103.5</v>
       </c>
       <c r="H414">
-        <v>24.038321960000001</v>
+        <f t="shared" si="6"/>
+        <v>24.038321962548995</v>
       </c>
       <c r="I414">
         <v>52</v>
@@ -41113,7 +42327,8 @@
         <v>114.75</v>
       </c>
       <c r="H415">
-        <v>26.65118305</v>
+        <f t="shared" si="6"/>
+        <v>26.651183045434749</v>
       </c>
       <c r="I415">
         <v>32</v>
@@ -41208,7 +42423,8 @@
         <v>94.5</v>
       </c>
       <c r="H416">
-        <v>26.177285319999999</v>
+        <f t="shared" si="6"/>
+        <v>26.177285318559559</v>
       </c>
       <c r="I416">
         <v>4</v>
@@ -41284,8 +42500,27 @@
       <c r="A417" t="s">
         <v>476</v>
       </c>
+      <c r="B417">
+        <v>29</v>
+      </c>
       <c r="C417" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D417">
+        <v>183</v>
+      </c>
+      <c r="E417" t="s">
+        <v>29</v>
+      </c>
+      <c r="F417" t="s">
+        <v>72</v>
+      </c>
+      <c r="G417">
+        <v>74</v>
+      </c>
+      <c r="H417">
+        <f t="shared" si="6"/>
+        <v>22.096807907073966</v>
       </c>
       <c r="I417">
         <v>16</v>
@@ -41380,7 +42615,8 @@
         <v>105.75</v>
       </c>
       <c r="H418">
-        <v>25.1635931</v>
+        <f t="shared" si="6"/>
+        <v>25.163593099345629</v>
       </c>
       <c r="I418">
         <v>64</v>
@@ -41475,7 +42711,8 @@
         <v>93.6</v>
       </c>
       <c r="H419">
-        <v>23.99615446</v>
+        <f t="shared" si="6"/>
+        <v>23.996154462425892</v>
       </c>
       <c r="I419">
         <v>33</v>
@@ -41570,7 +42807,8 @@
         <v>83.25</v>
       </c>
       <c r="H420">
-        <v>24.324324319999999</v>
+        <f t="shared" si="6"/>
+        <v>24.324324324324323</v>
       </c>
       <c r="I420">
         <v>2</v>
@@ -41665,7 +42903,8 @@
         <v>100.35</v>
       </c>
       <c r="H421">
-        <v>26.390532539999999</v>
+        <f t="shared" si="6"/>
+        <v>26.390532544378697</v>
       </c>
       <c r="I421">
         <v>38</v>
@@ -41741,8 +42980,27 @@
       <c r="A422" t="s">
         <v>481</v>
       </c>
+      <c r="B422">
+        <v>23</v>
+      </c>
       <c r="C422" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D422">
+        <v>185</v>
+      </c>
+      <c r="E422" t="s">
+        <v>29</v>
+      </c>
+      <c r="F422" t="s">
+        <v>64</v>
+      </c>
+      <c r="G422">
+        <v>79</v>
+      </c>
+      <c r="H422">
+        <f t="shared" si="6"/>
+        <v>23.082542001460919</v>
       </c>
       <c r="I422">
         <v>51</v>
@@ -41837,7 +43095,8 @@
         <v>78.75</v>
       </c>
       <c r="H423">
-        <v>24.995040670000002</v>
+        <f t="shared" si="6"/>
+        <v>24.995040666534418</v>
       </c>
       <c r="I423">
         <v>76</v>
@@ -41932,7 +43191,8 @@
         <v>92.25</v>
       </c>
       <c r="H424">
-        <v>25.554016619999999</v>
+        <f t="shared" si="6"/>
+        <v>25.554016620498615</v>
       </c>
       <c r="I424">
         <v>5</v>
@@ -42027,7 +43287,8 @@
         <v>86.4</v>
       </c>
       <c r="H425">
-        <v>22.150296430000001</v>
+        <f t="shared" si="6"/>
+        <v>22.150296426854673</v>
       </c>
       <c r="I425">
         <v>78</v>
@@ -42122,7 +43383,8 @@
         <v>108</v>
       </c>
       <c r="H426">
-        <v>25.698988700000001</v>
+        <f t="shared" si="6"/>
+        <v>25.698988697204047</v>
       </c>
       <c r="I426">
         <v>21</v>
@@ -42217,7 +43479,8 @@
         <v>99</v>
       </c>
       <c r="H427">
-        <v>25.38054799</v>
+        <f t="shared" si="6"/>
+        <v>25.380547989104311</v>
       </c>
       <c r="I427">
         <v>57</v>
@@ -42312,7 +43575,8 @@
         <v>112.5</v>
       </c>
       <c r="H428">
-        <v>26.12861083</v>
+        <f t="shared" si="6"/>
+        <v>26.128610828857596</v>
       </c>
       <c r="I428">
         <v>63</v>
@@ -42388,8 +43652,27 @@
       <c r="A429" t="s">
         <v>488</v>
       </c>
+      <c r="B429">
+        <v>23</v>
+      </c>
       <c r="C429" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D429">
+        <v>211</v>
+      </c>
+      <c r="E429" t="s">
+        <v>16</v>
+      </c>
+      <c r="F429" t="s">
+        <v>115</v>
+      </c>
+      <c r="G429">
+        <v>113</v>
+      </c>
+      <c r="H429">
+        <f t="shared" si="6"/>
+        <v>25.381280743918602</v>
       </c>
       <c r="I429">
         <v>20</v>
@@ -42484,7 +43767,8 @@
         <v>91.35</v>
       </c>
       <c r="H430">
-        <v>25.984000000000002</v>
+        <f t="shared" si="6"/>
+        <v>25.983999999999998</v>
       </c>
       <c r="I430">
         <v>55</v>
@@ -42579,7 +43863,8 @@
         <v>162</v>
       </c>
       <c r="H431">
-        <v>32.72314102</v>
+        <f t="shared" si="6"/>
+        <v>32.723141017548294</v>
       </c>
       <c r="I431">
         <v>3</v>
@@ -42674,7 +43959,8 @@
         <v>101.25</v>
       </c>
       <c r="H432">
-        <v>25.957378630000001</v>
+        <f t="shared" si="6"/>
+        <v>25.957378625220315</v>
       </c>
       <c r="I432">
         <v>82</v>
@@ -42769,7 +44055,8 @@
         <v>90</v>
       </c>
       <c r="H433">
-        <v>23.668639049999999</v>
+        <f t="shared" si="6"/>
+        <v>23.668639053254438</v>
       </c>
       <c r="I433">
         <v>34</v>
@@ -42864,7 +44151,8 @@
         <v>110.25</v>
       </c>
       <c r="H434">
-        <v>24.415224909999999</v>
+        <f t="shared" si="6"/>
+        <v>24.415224913494807</v>
       </c>
       <c r="I434">
         <v>73</v>
@@ -42959,6 +44247,7 @@
         <v>85.5</v>
       </c>
       <c r="H435">
+        <f t="shared" si="6"/>
         <v>24.32</v>
       </c>
       <c r="I435">
@@ -43054,7 +44343,8 @@
         <v>77.400000000000006</v>
       </c>
       <c r="H436">
-        <v>22.015999999999998</v>
+        <f t="shared" si="6"/>
+        <v>22.016000000000002</v>
       </c>
       <c r="I436">
         <v>81</v>
@@ -43149,7 +44439,8 @@
         <v>101.25</v>
       </c>
       <c r="H437">
-        <v>24.092801900000001</v>
+        <f t="shared" si="6"/>
+        <v>24.092801903628793</v>
       </c>
       <c r="I437">
         <v>35</v>
@@ -43244,7 +44535,8 @@
         <v>114.75</v>
       </c>
       <c r="H438">
-        <v>26.020408159999999</v>
+        <f t="shared" si="6"/>
+        <v>26.020408163265301</v>
       </c>
       <c r="I438">
         <v>70</v>
@@ -43339,7 +44631,8 @@
         <v>101.25</v>
       </c>
       <c r="H439">
-        <v>24.691358019999999</v>
+        <f t="shared" si="6"/>
+        <v>24.691358024691358</v>
       </c>
       <c r="I439">
         <v>62</v>
@@ -43434,7 +44727,8 @@
         <v>112.5</v>
       </c>
       <c r="H440">
-        <v>27.434842249999999</v>
+        <f t="shared" si="6"/>
+        <v>27.434842249657066</v>
       </c>
       <c r="I440">
         <v>63</v>
@@ -43529,7 +44823,8 @@
         <v>95.4</v>
       </c>
       <c r="H441">
-        <v>23.26474623</v>
+        <f t="shared" si="6"/>
+        <v>23.264746227709193</v>
       </c>
       <c r="I441">
         <v>58</v>
@@ -43624,7 +44919,8 @@
         <v>113.4</v>
       </c>
       <c r="H442">
-        <v>27.654320989999999</v>
+        <f t="shared" si="6"/>
+        <v>27.654320987654323</v>
       </c>
       <c r="I442">
         <v>33</v>
@@ -43719,7 +45015,8 @@
         <v>92.7</v>
       </c>
       <c r="H443">
-        <v>23.765422210000001</v>
+        <f t="shared" si="6"/>
+        <v>23.765422207979491</v>
       </c>
       <c r="I443">
         <v>82</v>
@@ -43814,7 +45111,8 @@
         <v>99</v>
       </c>
       <c r="H444">
-        <v>25.38054799</v>
+        <f t="shared" si="6"/>
+        <v>25.380547989104311</v>
       </c>
       <c r="I444">
         <v>52</v>
@@ -43890,8 +45188,27 @@
       <c r="A445" t="s">
         <v>504</v>
       </c>
+      <c r="B445">
+        <v>26</v>
+      </c>
       <c r="C445" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D445">
+        <v>203</v>
+      </c>
+      <c r="E445" t="s">
+        <v>16</v>
+      </c>
+      <c r="F445" t="s">
+        <v>556</v>
+      </c>
+      <c r="G445">
+        <v>100</v>
+      </c>
+      <c r="H445">
+        <f t="shared" si="6"/>
+        <v>24.266543716178504</v>
       </c>
       <c r="I445">
         <v>76</v>
@@ -43967,8 +45284,27 @@
       <c r="A446" t="s">
         <v>505</v>
       </c>
+      <c r="B446">
+        <v>23</v>
+      </c>
       <c r="C446" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D446">
+        <v>208</v>
+      </c>
+      <c r="E446" t="s">
+        <v>16</v>
+      </c>
+      <c r="F446" t="s">
+        <v>105</v>
+      </c>
+      <c r="G446">
+        <v>107</v>
+      </c>
+      <c r="H446">
+        <f t="shared" si="6"/>
+        <v>24.731878698224847</v>
       </c>
       <c r="I446">
         <v>54</v>
@@ -44063,7 +45399,8 @@
         <v>110.25</v>
       </c>
       <c r="H447">
-        <v>25.606038609999999</v>
+        <f t="shared" si="6"/>
+        <v>25.606038612280443</v>
       </c>
       <c r="I447">
         <v>52</v>
@@ -44158,7 +45495,8 @@
         <v>112.5</v>
       </c>
       <c r="H448">
-        <v>26.12861083</v>
+        <f t="shared" si="6"/>
+        <v>26.128610828857596</v>
       </c>
       <c r="I448">
         <v>77</v>
@@ -44253,7 +45591,8 @@
         <v>76.5</v>
       </c>
       <c r="H449">
-        <v>22.968662040000002</v>
+        <f t="shared" si="6"/>
+        <v>22.968662037905798</v>
       </c>
       <c r="I449">
         <v>11</v>
@@ -44348,7 +45687,8 @@
         <v>92.25</v>
       </c>
       <c r="H450">
-        <v>24.260355029999999</v>
+        <f t="shared" si="6"/>
+        <v>24.260355029585796</v>
       </c>
       <c r="I450">
         <v>70</v>
@@ -44443,7 +45783,8 @@
         <v>123.75</v>
       </c>
       <c r="H451">
-        <v>27.40484429</v>
+        <f t="shared" ref="H451:H491" si="7">G451/D451/D451*10000</f>
+        <v>27.40484429065744</v>
       </c>
       <c r="I451">
         <v>81</v>
@@ -44519,8 +45860,27 @@
       <c r="A452" t="s">
         <v>511</v>
       </c>
+      <c r="B452">
+        <v>21</v>
+      </c>
       <c r="C452" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D452">
+        <v>203</v>
+      </c>
+      <c r="E452" t="s">
+        <v>54</v>
+      </c>
+      <c r="F452" t="s">
+        <v>30</v>
+      </c>
+      <c r="G452">
+        <v>104</v>
+      </c>
+      <c r="H452">
+        <f t="shared" si="7"/>
+        <v>25.237205464825646</v>
       </c>
       <c r="I452">
         <v>40</v>
@@ -44615,7 +45975,8 @@
         <v>105.75</v>
       </c>
       <c r="H453">
-        <v>25.78875171</v>
+        <f t="shared" si="7"/>
+        <v>25.788751714677641</v>
       </c>
       <c r="I453">
         <v>68</v>
@@ -44710,7 +46071,8 @@
         <v>87.75</v>
       </c>
       <c r="H454">
-        <v>25.639152670000001</v>
+        <f t="shared" si="7"/>
+        <v>25.639152666179694</v>
       </c>
       <c r="I454">
         <v>12</v>
@@ -44805,7 +46167,8 @@
         <v>95.85</v>
       </c>
       <c r="H455">
-        <v>26.551246540000001</v>
+        <f t="shared" si="7"/>
+        <v>26.551246537396118</v>
       </c>
       <c r="I455">
         <v>63</v>
@@ -44900,7 +46263,8 @@
         <v>83.25</v>
       </c>
       <c r="H456">
-        <v>24.324324319999999</v>
+        <f t="shared" si="7"/>
+        <v>24.324324324324323</v>
       </c>
       <c r="I456">
         <v>68</v>
@@ -44995,7 +46359,8 @@
         <v>90</v>
       </c>
       <c r="H457">
-        <v>23.073225440000002</v>
+        <f t="shared" si="7"/>
+        <v>23.073225444640283</v>
       </c>
       <c r="I457">
         <v>72</v>
@@ -45071,8 +46436,27 @@
       <c r="A458" t="s">
         <v>517</v>
       </c>
+      <c r="B458">
+        <v>21</v>
+      </c>
       <c r="C458" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D458">
+        <v>198</v>
+      </c>
+      <c r="E458" t="s">
+        <v>29</v>
+      </c>
+      <c r="F458" t="s">
+        <v>105</v>
+      </c>
+      <c r="G458">
+        <v>92</v>
+      </c>
+      <c r="H458">
+        <f t="shared" si="7"/>
+        <v>23.466993163962862</v>
       </c>
       <c r="I458">
         <v>30</v>
@@ -45167,7 +46551,8 @@
         <v>87.75</v>
       </c>
       <c r="H459">
-        <v>23.680215889999999</v>
+        <f t="shared" si="7"/>
+        <v>23.680215888008096</v>
       </c>
       <c r="I459">
         <v>5</v>
@@ -45243,8 +46628,27 @@
       <c r="A460" t="s">
         <v>519</v>
       </c>
+      <c r="B460">
+        <v>24</v>
+      </c>
       <c r="C460" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D460">
+        <v>208</v>
+      </c>
+      <c r="E460" t="s">
+        <v>54</v>
+      </c>
+      <c r="F460" t="s">
+        <v>50</v>
+      </c>
+      <c r="G460">
+        <v>104</v>
+      </c>
+      <c r="H460">
+        <f t="shared" si="7"/>
+        <v>24.03846153846154</v>
       </c>
       <c r="I460">
         <v>51</v>
@@ -45339,6 +46743,7 @@
         <v>96.75</v>
       </c>
       <c r="H461">
+        <f t="shared" si="7"/>
         <v>24.1875</v>
       </c>
       <c r="I461">
@@ -45434,6 +46839,7 @@
         <v>102.6</v>
       </c>
       <c r="H462">
+        <f t="shared" si="7"/>
         <v>25.65</v>
       </c>
       <c r="I462">
@@ -45529,7 +46935,8 @@
         <v>85.95</v>
       </c>
       <c r="H463">
-        <v>25.80596735</v>
+        <f t="shared" si="7"/>
+        <v>25.805967348470634</v>
       </c>
       <c r="I463">
         <v>76</v>
@@ -45605,8 +47012,27 @@
       <c r="A464" t="s">
         <v>523</v>
       </c>
+      <c r="B464">
+        <v>23</v>
+      </c>
       <c r="C464" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D464">
+        <v>206</v>
+      </c>
+      <c r="E464" t="s">
+        <v>16</v>
+      </c>
+      <c r="F464" t="s">
+        <v>47</v>
+      </c>
+      <c r="G464">
+        <v>107</v>
+      </c>
+      <c r="H464">
+        <f t="shared" si="7"/>
+        <v>25.21444056932793</v>
       </c>
       <c r="I464">
         <v>82</v>
@@ -45701,7 +47127,8 @@
         <v>92.25</v>
       </c>
       <c r="H465">
-        <v>25.554016619999999</v>
+        <f t="shared" si="7"/>
+        <v>25.554016620498615</v>
       </c>
       <c r="I465">
         <v>47</v>
@@ -45796,7 +47223,8 @@
         <v>87.75</v>
       </c>
       <c r="H466">
-        <v>27.851616740000001</v>
+        <f t="shared" si="7"/>
+        <v>27.85161674270978</v>
       </c>
       <c r="I466">
         <v>75</v>
@@ -45891,7 +47319,8 @@
         <v>87.3</v>
       </c>
       <c r="H467">
-        <v>24.832000000000001</v>
+        <f t="shared" si="7"/>
+        <v>24.831999999999997</v>
       </c>
       <c r="I467">
         <v>33</v>
@@ -45986,7 +47415,8 @@
         <v>112.5</v>
       </c>
       <c r="H468">
-        <v>27.434842249999999</v>
+        <f t="shared" si="7"/>
+        <v>27.434842249657066</v>
       </c>
       <c r="I468">
         <v>74</v>
@@ -46081,7 +47511,8 @@
         <v>83.7</v>
       </c>
       <c r="H469">
-        <v>23.18559557</v>
+        <f t="shared" si="7"/>
+        <v>23.185595567867036</v>
       </c>
       <c r="I469">
         <v>32</v>
@@ -46157,8 +47588,27 @@
       <c r="A470" t="s">
         <v>529</v>
       </c>
+      <c r="B470">
+        <v>25</v>
+      </c>
       <c r="C470" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D470">
+        <v>213</v>
+      </c>
+      <c r="E470" t="s">
+        <v>38</v>
+      </c>
+      <c r="F470" t="s">
+        <v>90</v>
+      </c>
+      <c r="G470">
+        <v>114</v>
+      </c>
+      <c r="H470">
+        <f t="shared" si="7"/>
+        <v>25.127289558949943</v>
       </c>
       <c r="I470">
         <v>82</v>
@@ -46253,7 +47703,8 @@
         <v>99</v>
       </c>
       <c r="H471">
-        <v>26.035502959999999</v>
+        <f t="shared" si="7"/>
+        <v>26.03550295857988</v>
       </c>
       <c r="I471">
         <v>79</v>
@@ -46329,8 +47780,27 @@
       <c r="A472" t="s">
         <v>531</v>
       </c>
+      <c r="B472">
+        <v>28</v>
+      </c>
       <c r="C472" t="s">
-        <v>555</v>
+        <v>28</v>
+      </c>
+      <c r="D472">
+        <v>206</v>
+      </c>
+      <c r="E472" t="s">
+        <v>16</v>
+      </c>
+      <c r="F472" t="s">
+        <v>147</v>
+      </c>
+      <c r="G472">
+        <v>97</v>
+      </c>
+      <c r="H472">
+        <f t="shared" si="7"/>
+        <v>22.857950796493547</v>
       </c>
       <c r="I472">
         <v>2</v>
@@ -46425,7 +47895,8 @@
         <v>108</v>
       </c>
       <c r="H473">
-        <v>23.91695502</v>
+        <f t="shared" si="7"/>
+        <v>23.916955017301039</v>
       </c>
       <c r="I473">
         <v>75</v>
@@ -46520,7 +47991,8 @@
         <v>105.75</v>
       </c>
       <c r="H474">
-        <v>26.4375</v>
+        <f t="shared" si="7"/>
+        <v>26.437500000000004</v>
       </c>
       <c r="I474">
         <v>62</v>
@@ -46615,7 +48087,8 @@
         <v>90</v>
       </c>
       <c r="H475">
-        <v>24.930747920000002</v>
+        <f t="shared" si="7"/>
+        <v>24.930747922437671</v>
       </c>
       <c r="I475">
         <v>2</v>
@@ -46710,7 +48183,8 @@
         <v>100.8</v>
       </c>
       <c r="H476">
-        <v>24.58161866</v>
+        <f t="shared" si="7"/>
+        <v>24.581618655692729</v>
       </c>
       <c r="I476">
         <v>10</v>
@@ -46805,7 +48279,8 @@
         <v>94.5</v>
       </c>
       <c r="H477">
-        <v>26.177285319999999</v>
+        <f t="shared" si="7"/>
+        <v>26.177285318559559</v>
       </c>
       <c r="I477">
         <v>72</v>
@@ -46900,7 +48375,8 @@
         <v>99</v>
       </c>
       <c r="H478">
-        <v>26.035502959999999</v>
+        <f t="shared" si="7"/>
+        <v>26.03550295857988</v>
       </c>
       <c r="I478">
         <v>66</v>
@@ -46995,7 +48471,8 @@
         <v>90</v>
       </c>
       <c r="H479">
-        <v>24.930747920000002</v>
+        <f t="shared" si="7"/>
+        <v>24.930747922437671</v>
       </c>
       <c r="I479">
         <v>65</v>
@@ -47090,7 +48567,8 @@
         <v>96.75</v>
       </c>
       <c r="H480">
-        <v>24.803717349999999</v>
+        <f t="shared" si="7"/>
+        <v>24.803717352988304</v>
       </c>
       <c r="I480">
         <v>76</v>
@@ -47185,7 +48663,8 @@
         <v>99</v>
       </c>
       <c r="H481">
-        <v>26.716141</v>
+        <f t="shared" si="7"/>
+        <v>26.716141001855284</v>
       </c>
       <c r="I481">
         <v>60</v>
@@ -47280,7 +48759,8 @@
         <v>78.75</v>
       </c>
       <c r="H482">
-        <v>20.710059170000001</v>
+        <f t="shared" si="7"/>
+        <v>20.710059171597635</v>
       </c>
       <c r="I482">
         <v>58</v>
@@ -47375,7 +48855,8 @@
         <v>83.25</v>
       </c>
       <c r="H483">
-        <v>25.694444440000002</v>
+        <f t="shared" si="7"/>
+        <v>25.694444444444446</v>
       </c>
       <c r="I483">
         <v>7</v>
@@ -47470,7 +48951,8 @@
         <v>83.25</v>
       </c>
       <c r="H484">
-        <v>25.694444440000002</v>
+        <f t="shared" si="7"/>
+        <v>25.694444444444446</v>
       </c>
       <c r="I484">
         <v>8</v>
@@ -47565,7 +49047,8 @@
         <v>90</v>
       </c>
       <c r="H485">
-        <v>24.930747920000002</v>
+        <f t="shared" si="7"/>
+        <v>24.930747922437671</v>
       </c>
       <c r="I485">
         <v>52</v>
@@ -47660,6 +49143,7 @@
         <v>101.25</v>
       </c>
       <c r="H486">
+        <f t="shared" si="7"/>
         <v>25.3125</v>
       </c>
       <c r="I486">
@@ -47755,7 +49239,8 @@
         <v>99</v>
       </c>
       <c r="H487">
-        <v>26.035502959999999</v>
+        <f t="shared" si="7"/>
+        <v>26.03550295857988</v>
       </c>
       <c r="I487">
         <v>9</v>
@@ -47850,7 +49335,8 @@
         <v>85.05</v>
       </c>
       <c r="H488">
-        <v>22.951593859999999</v>
+        <f t="shared" si="7"/>
+        <v>22.951593860684767</v>
       </c>
       <c r="I488">
         <v>77</v>
@@ -47945,7 +49431,8 @@
         <v>117</v>
       </c>
       <c r="H489">
-        <v>28.53223594</v>
+        <f t="shared" si="7"/>
+        <v>28.532235939643346</v>
       </c>
       <c r="I489">
         <v>71</v>
@@ -48040,7 +49527,8 @@
         <v>121.5</v>
       </c>
       <c r="H490">
-        <v>28.218899700000001</v>
+        <f t="shared" si="7"/>
+        <v>28.218899695166204</v>
       </c>
       <c r="I490">
         <v>73</v>
@@ -48135,7 +49623,8 @@
         <v>90</v>
       </c>
       <c r="H491">
-        <v>24.287400909999999</v>
+        <f t="shared" si="7"/>
+        <v>24.287400910777535</v>
       </c>
       <c r="I491">
         <v>16</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\ModelsOfLinearRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C27F6AD-157A-4B2D-BE3B-1E2DCB7C6245}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701277CE-21D2-4492-B7F5-74A29CB2BAD0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2555,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I466" sqref="I466"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="I218" sqref="I218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23412,11 +23412,11 @@
         <v>52</v>
       </c>
       <c r="G218">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="H218">
         <f t="shared" si="3"/>
-        <v>42.76047521435342</v>
+        <v>22.923141352024508</v>
       </c>
       <c r="I218">
         <v>37</v>
